--- a/2024 Logger Sites/Air/daily_air_master.xlsx
+++ b/2024 Logger Sites/Air/daily_air_master.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I191"/>
+  <dimension ref="A1:K191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,15 +390,25 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>mean_temp</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>min_temp</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>max_temp</t>
         </is>
@@ -407,7 +417,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -436,19 +446,25 @@
         </is>
       </c>
       <c r="G2">
-        <v>22.28</v>
+        <v>43.34527702</v>
       </c>
       <c r="H2">
-        <v>14.37</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I2">
-        <v>28.53</v>
+        <v>23.1</v>
+      </c>
+      <c r="J2">
+        <v>14.33</v>
+      </c>
+      <c r="K2">
+        <v>41.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -477,19 +493,25 @@
         </is>
       </c>
       <c r="G3">
-        <v>18.92</v>
+        <v>43.34527702</v>
       </c>
       <c r="H3">
+        <v>-122.73678676</v>
+      </c>
+      <c r="I3">
+        <v>18.68</v>
+      </c>
+      <c r="J3">
         <v>10.51</v>
       </c>
-      <c r="I3">
-        <v>29.34</v>
+      <c r="K3">
+        <v>29.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -518,19 +540,25 @@
         </is>
       </c>
       <c r="G4">
-        <v>20.55</v>
+        <v>43.34527702</v>
       </c>
       <c r="H4">
-        <v>12.57</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I4">
-        <v>30.37</v>
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>12.18</v>
+      </c>
+      <c r="K4">
+        <v>30.89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -559,19 +587,25 @@
         </is>
       </c>
       <c r="G5">
-        <v>20.6</v>
+        <v>43.34527702</v>
       </c>
       <c r="H5">
-        <v>12.48</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I5">
-        <v>30.11</v>
+        <v>20.31</v>
+      </c>
+      <c r="J5">
+        <v>12.18</v>
+      </c>
+      <c r="K5">
+        <v>30.16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -600,19 +634,25 @@
         </is>
       </c>
       <c r="G6">
-        <v>18.6</v>
+        <v>43.34527702</v>
       </c>
       <c r="H6">
-        <v>10.94</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I6">
-        <v>26.51</v>
+        <v>18.03</v>
+      </c>
+      <c r="J6">
+        <v>12.48</v>
+      </c>
+      <c r="K6">
+        <v>25.99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -641,19 +681,25 @@
         </is>
       </c>
       <c r="G7">
-        <v>18.68</v>
+        <v>43.34527702</v>
       </c>
       <c r="H7">
-        <v>10.29</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I7">
-        <v>29.13</v>
+        <v>18.25</v>
+      </c>
+      <c r="J7">
+        <v>10.38</v>
+      </c>
+      <c r="K7">
+        <v>28.74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -682,19 +728,25 @@
         </is>
       </c>
       <c r="G8">
-        <v>21.14</v>
+        <v>43.34527702</v>
       </c>
       <c r="H8">
-        <v>12.01</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I8">
-        <v>32</v>
+        <v>20.77</v>
+      </c>
+      <c r="J8">
+        <v>11.92</v>
+      </c>
+      <c r="K8">
+        <v>31.53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -723,19 +775,25 @@
         </is>
       </c>
       <c r="G9">
-        <v>18.33</v>
+        <v>43.34527702</v>
       </c>
       <c r="H9">
-        <v>13.81</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I9">
-        <v>23.25</v>
+        <v>17.54</v>
+      </c>
+      <c r="J9">
+        <v>14.37</v>
+      </c>
+      <c r="K9">
+        <v>21.88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -764,19 +822,25 @@
         </is>
       </c>
       <c r="G10">
-        <v>17.81</v>
+        <v>43.34527702</v>
       </c>
       <c r="H10">
-        <v>13.47</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I10">
-        <v>25.05</v>
+        <v>17.43</v>
+      </c>
+      <c r="J10">
+        <v>13.12</v>
+      </c>
+      <c r="K10">
+        <v>25.65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -805,19 +869,25 @@
         </is>
       </c>
       <c r="G11">
-        <v>18.26</v>
+        <v>43.34527702</v>
       </c>
       <c r="H11">
-        <v>10.21</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I11">
-        <v>27.93</v>
+        <v>18.14</v>
+      </c>
+      <c r="J11">
+        <v>10.34</v>
+      </c>
+      <c r="K11">
+        <v>28.61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -846,19 +916,25 @@
         </is>
       </c>
       <c r="G12">
-        <v>18.42</v>
+        <v>43.34527702</v>
       </c>
       <c r="H12">
-        <v>11.79</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I12">
-        <v>26.3</v>
+        <v>18.66</v>
+      </c>
+      <c r="J12">
+        <v>11.71</v>
+      </c>
+      <c r="K12">
+        <v>26.34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -887,19 +963,25 @@
         </is>
       </c>
       <c r="G13">
-        <v>19.65</v>
+        <v>43.34527702</v>
       </c>
       <c r="H13">
-        <v>12.44</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I13">
-        <v>28.1</v>
+        <v>19.5</v>
+      </c>
+      <c r="J13">
+        <v>12.31</v>
+      </c>
+      <c r="K13">
+        <v>28.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -928,19 +1010,25 @@
         </is>
       </c>
       <c r="G14">
-        <v>19.54</v>
+        <v>43.34527702</v>
       </c>
       <c r="H14">
-        <v>12.1</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I14">
-        <v>28.87</v>
+        <v>19.66</v>
+      </c>
+      <c r="J14">
+        <v>12.35</v>
+      </c>
+      <c r="K14">
+        <v>29.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -969,19 +1057,25 @@
         </is>
       </c>
       <c r="G15">
-        <v>19.35</v>
+        <v>43.34527702</v>
       </c>
       <c r="H15">
-        <v>11.37</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I15">
-        <v>29.38</v>
+        <v>19.39</v>
+      </c>
+      <c r="J15">
+        <v>11.84</v>
+      </c>
+      <c r="K15">
+        <v>29.17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1010,19 +1104,25 @@
         </is>
       </c>
       <c r="G16">
-        <v>19.58</v>
+        <v>43.34527702</v>
       </c>
       <c r="H16">
-        <v>10.04</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I16">
-        <v>30.71</v>
+        <v>19.48</v>
+      </c>
+      <c r="J16">
+        <v>10.89</v>
+      </c>
+      <c r="K16">
+        <v>30.59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1051,19 +1151,25 @@
         </is>
       </c>
       <c r="G17">
-        <v>22.16</v>
+        <v>43.34527702</v>
       </c>
       <c r="H17">
-        <v>12.1</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I17">
-        <v>33.97</v>
+        <v>21.85</v>
+      </c>
+      <c r="J17">
+        <v>12.31</v>
+      </c>
+      <c r="K17">
+        <v>35.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1092,19 +1198,25 @@
         </is>
       </c>
       <c r="G18">
-        <v>24.12</v>
+        <v>43.34527702</v>
       </c>
       <c r="H18">
-        <v>14.15</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I18">
-        <v>36.72</v>
+        <v>24.16</v>
+      </c>
+      <c r="J18">
+        <v>14.37</v>
+      </c>
+      <c r="K18">
+        <v>37.28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1133,19 +1245,25 @@
         </is>
       </c>
       <c r="G19">
-        <v>24.65</v>
+        <v>43.34527702</v>
       </c>
       <c r="H19">
-        <v>15.31</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I19">
-        <v>37.75</v>
+        <v>24.99</v>
+      </c>
+      <c r="J19">
+        <v>16</v>
+      </c>
+      <c r="K19">
+        <v>38.39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1174,19 +1292,25 @@
         </is>
       </c>
       <c r="G20">
-        <v>23.68</v>
+        <v>43.34527702</v>
       </c>
       <c r="H20">
-        <v>13.47</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I20">
-        <v>36.55</v>
+        <v>24.25</v>
+      </c>
+      <c r="J20">
+        <v>14.54</v>
+      </c>
+      <c r="K20">
+        <v>37.84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1215,19 +1339,25 @@
         </is>
       </c>
       <c r="G21">
-        <v>24.46</v>
+        <v>43.34527702</v>
       </c>
       <c r="H21">
-        <v>14.8</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I21">
-        <v>36.93</v>
+        <v>24.62</v>
+      </c>
+      <c r="J21">
+        <v>15.27</v>
+      </c>
+      <c r="K21">
+        <v>38.09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1256,19 +1386,25 @@
         </is>
       </c>
       <c r="G22">
-        <v>25.17</v>
+        <v>43.34527702</v>
       </c>
       <c r="H22">
+        <v>-122.73678676</v>
+      </c>
+      <c r="I22">
+        <v>25.37</v>
+      </c>
+      <c r="J22">
         <v>17.16</v>
       </c>
-      <c r="I22">
-        <v>35.18</v>
+      <c r="K22">
+        <v>37.02</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1297,19 +1433,25 @@
         </is>
       </c>
       <c r="G23">
-        <v>24.33</v>
+        <v>43.34527702</v>
       </c>
       <c r="H23">
-        <v>16.47</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I23">
-        <v>33.63</v>
+        <v>24.31</v>
+      </c>
+      <c r="J23">
+        <v>16.21</v>
+      </c>
+      <c r="K23">
+        <v>35.69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1338,19 +1480,25 @@
         </is>
       </c>
       <c r="G24">
-        <v>22.79</v>
+        <v>43.34527702</v>
       </c>
       <c r="H24">
-        <v>14.5</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I24">
-        <v>31.7</v>
+        <v>22.52</v>
+      </c>
+      <c r="J24">
+        <v>14.15</v>
+      </c>
+      <c r="K24">
+        <v>33.16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1379,19 +1527,25 @@
         </is>
       </c>
       <c r="G25">
-        <v>22.95</v>
+        <v>43.34527702</v>
       </c>
       <c r="H25">
-        <v>14.54</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I25">
-        <v>32.09</v>
+        <v>22.67</v>
+      </c>
+      <c r="J25">
+        <v>14.28</v>
+      </c>
+      <c r="K25">
+        <v>32.99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1420,19 +1574,25 @@
         </is>
       </c>
       <c r="G26">
-        <v>23.83</v>
+        <v>43.34527702</v>
       </c>
       <c r="H26">
-        <v>15.23</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I26">
-        <v>33.76</v>
+        <v>23.79</v>
+      </c>
+      <c r="J26">
+        <v>15.1</v>
+      </c>
+      <c r="K26">
+        <v>35.39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1461,19 +1621,25 @@
         </is>
       </c>
       <c r="G27">
-        <v>24.32</v>
+        <v>43.34527702</v>
       </c>
       <c r="H27">
-        <v>16.73</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I27">
-        <v>33.85</v>
+        <v>23.91</v>
+      </c>
+      <c r="J27">
+        <v>16.26</v>
+      </c>
+      <c r="K27">
+        <v>34.62</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1502,19 +1668,25 @@
         </is>
       </c>
       <c r="G28">
-        <v>24.19</v>
+        <v>43.34527702</v>
       </c>
       <c r="H28">
-        <v>16.26</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I28">
-        <v>34.23</v>
+        <v>24.13</v>
+      </c>
+      <c r="J28">
+        <v>16.04</v>
+      </c>
+      <c r="K28">
+        <v>34.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1543,19 +1715,25 @@
         </is>
       </c>
       <c r="G29">
-        <v>21.84</v>
+        <v>43.34527702</v>
       </c>
       <c r="H29">
-        <v>16.08</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I29">
-        <v>34.23</v>
+        <v>23.41</v>
+      </c>
+      <c r="J29">
+        <v>16.47</v>
+      </c>
+      <c r="K29">
+        <v>33.89</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1584,19 +1762,25 @@
         </is>
       </c>
       <c r="G30">
-        <v>22.7</v>
+        <v>43.34527702</v>
       </c>
       <c r="H30">
-        <v>15.48</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I30">
-        <v>31.36</v>
+        <v>22.39</v>
+      </c>
+      <c r="J30">
+        <v>15.23</v>
+      </c>
+      <c r="K30">
+        <v>31.27</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1625,19 +1809,25 @@
         </is>
       </c>
       <c r="G31">
-        <v>22.36</v>
+        <v>43.34527702</v>
       </c>
       <c r="H31">
-        <v>14.03</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I31">
-        <v>31.66</v>
+        <v>22.48</v>
+      </c>
+      <c r="J31">
+        <v>14.07</v>
+      </c>
+      <c r="K31">
+        <v>33.63</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1666,19 +1856,25 @@
         </is>
       </c>
       <c r="G32">
-        <v>22.16</v>
+        <v>43.34527702</v>
       </c>
       <c r="H32">
-        <v>14.67</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I32">
-        <v>31.1</v>
+        <v>22.49</v>
+      </c>
+      <c r="J32">
+        <v>14.58</v>
+      </c>
+      <c r="K32">
+        <v>33.42</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1707,19 +1903,25 @@
         </is>
       </c>
       <c r="G33">
-        <v>22.33</v>
+        <v>43.34527702</v>
       </c>
       <c r="H33">
-        <v>14.97</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I33">
-        <v>30.07</v>
+        <v>22.4</v>
+      </c>
+      <c r="J33">
+        <v>14.75</v>
+      </c>
+      <c r="K33">
+        <v>32.47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1748,19 +1950,25 @@
         </is>
       </c>
       <c r="G34">
-        <v>21.38</v>
+        <v>43.34527702</v>
       </c>
       <c r="H34">
-        <v>17.89</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I34">
-        <v>25.87</v>
+        <v>20.21</v>
+      </c>
+      <c r="J34">
+        <v>17.24</v>
+      </c>
+      <c r="K34">
+        <v>24.62</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1789,19 +1997,25 @@
         </is>
       </c>
       <c r="G35">
-        <v>20.19</v>
+        <v>43.34527702</v>
       </c>
       <c r="H35">
-        <v>16.64</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I35">
-        <v>26.04</v>
+        <v>19.95</v>
+      </c>
+      <c r="J35">
+        <v>16.08</v>
+      </c>
+      <c r="K35">
+        <v>29.13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1830,19 +2044,25 @@
         </is>
       </c>
       <c r="G36">
-        <v>20.06</v>
+        <v>43.34527702</v>
       </c>
       <c r="H36">
-        <v>12.57</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I36">
-        <v>28.44</v>
+        <v>19.91</v>
+      </c>
+      <c r="J36">
+        <v>12.35</v>
+      </c>
+      <c r="K36">
+        <v>30.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1871,19 +2091,25 @@
         </is>
       </c>
       <c r="G37">
-        <v>20.35</v>
+        <v>43.34527702</v>
       </c>
       <c r="H37">
-        <v>14.58</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I37">
-        <v>27.97</v>
+        <v>20.8</v>
+      </c>
+      <c r="J37">
+        <v>14.07</v>
+      </c>
+      <c r="K37">
+        <v>31.57</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1912,19 +2138,25 @@
         </is>
       </c>
       <c r="G38">
-        <v>19.09</v>
+        <v>43.34527702</v>
       </c>
       <c r="H38">
-        <v>13.9</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I38">
-        <v>25.01</v>
+        <v>18.99</v>
+      </c>
+      <c r="J38">
+        <v>14.67</v>
+      </c>
+      <c r="K38">
+        <v>27.41</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1953,19 +2185,25 @@
         </is>
       </c>
       <c r="G39">
-        <v>17.98</v>
+        <v>43.34527702</v>
       </c>
       <c r="H39">
-        <v>11.75</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I39">
-        <v>24.97</v>
+        <v>18.27</v>
+      </c>
+      <c r="J39">
+        <v>11.49</v>
+      </c>
+      <c r="K39">
+        <v>28.35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1994,19 +2232,25 @@
         </is>
       </c>
       <c r="G40">
-        <v>18.43</v>
+        <v>43.34527702</v>
       </c>
       <c r="H40">
-        <v>12.14</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I40">
-        <v>25.95</v>
+        <v>18.96</v>
+      </c>
+      <c r="J40">
+        <v>12.01</v>
+      </c>
+      <c r="K40">
+        <v>29.68</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2035,19 +2279,25 @@
         </is>
       </c>
       <c r="G41">
-        <v>18.85</v>
+        <v>43.34527702</v>
       </c>
       <c r="H41">
-        <v>11.71</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I41">
-        <v>27.63</v>
+        <v>19.08</v>
+      </c>
+      <c r="J41">
+        <v>12.05</v>
+      </c>
+      <c r="K41">
+        <v>27.67</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2076,19 +2326,25 @@
         </is>
       </c>
       <c r="G42">
-        <v>19.1</v>
+        <v>43.34527702</v>
       </c>
       <c r="H42">
-        <v>12.78</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I42">
-        <v>26.21</v>
+        <v>19.33</v>
+      </c>
+      <c r="J42">
+        <v>12.95</v>
+      </c>
+      <c r="K42">
+        <v>27.02</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2117,19 +2373,25 @@
         </is>
       </c>
       <c r="G43">
-        <v>21.85</v>
+        <v>43.34527702</v>
       </c>
       <c r="H43">
-        <v>16.51</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I43">
-        <v>28.4</v>
+        <v>22.18</v>
+      </c>
+      <c r="J43">
+        <v>17.37</v>
+      </c>
+      <c r="K43">
+        <v>30.16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2158,19 +2420,25 @@
         </is>
       </c>
       <c r="G44">
-        <v>22.19</v>
+        <v>43.34527702</v>
       </c>
       <c r="H44">
-        <v>14.67</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I44">
-        <v>31.1</v>
+        <v>22.68</v>
+      </c>
+      <c r="J44">
+        <v>15.14</v>
+      </c>
+      <c r="K44">
+        <v>33.29</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2199,19 +2467,25 @@
         </is>
       </c>
       <c r="G45">
-        <v>24.48</v>
+        <v>43.34527702</v>
       </c>
       <c r="H45">
-        <v>17.2</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I45">
-        <v>32.99</v>
+        <v>25.11</v>
+      </c>
+      <c r="J45">
+        <v>17.72</v>
+      </c>
+      <c r="K45">
+        <v>34.79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2240,19 +2514,25 @@
         </is>
       </c>
       <c r="G46">
-        <v>24.65</v>
+        <v>43.34527702</v>
       </c>
       <c r="H46">
-        <v>18.1</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I46">
-        <v>31.96</v>
+        <v>24.89</v>
+      </c>
+      <c r="J46">
+        <v>17.59</v>
+      </c>
+      <c r="K46">
+        <v>33.59</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2281,19 +2561,25 @@
         </is>
       </c>
       <c r="G47">
-        <v>20.99</v>
+        <v>43.34527702</v>
       </c>
       <c r="H47">
-        <v>19.04</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I47">
-        <v>23.42</v>
+        <v>20.91</v>
+      </c>
+      <c r="J47">
+        <v>17.93</v>
+      </c>
+      <c r="K47">
+        <v>24.54</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2322,19 +2608,25 @@
         </is>
       </c>
       <c r="G48">
-        <v>23.07</v>
+        <v>43.34527702</v>
       </c>
       <c r="H48">
-        <v>16</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I48">
-        <v>31.92</v>
+        <v>23.77</v>
+      </c>
+      <c r="J48">
+        <v>16.94</v>
+      </c>
+      <c r="K48">
+        <v>34.06</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2363,19 +2655,25 @@
         </is>
       </c>
       <c r="G49">
-        <v>22.55</v>
+        <v>43.34527702</v>
       </c>
       <c r="H49">
+        <v>-122.73678676</v>
+      </c>
+      <c r="I49">
+        <v>22.63</v>
+      </c>
+      <c r="J49">
         <v>16.13</v>
       </c>
-      <c r="I49">
-        <v>29.94</v>
+      <c r="K49">
+        <v>33.12</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2404,19 +2702,25 @@
         </is>
       </c>
       <c r="G50">
-        <v>20.92</v>
+        <v>43.34527702</v>
       </c>
       <c r="H50">
-        <v>14.37</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I50">
-        <v>28.53</v>
+        <v>21.3</v>
+      </c>
+      <c r="J50">
+        <v>13.94</v>
+      </c>
+      <c r="K50">
+        <v>31.57</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2445,19 +2749,25 @@
         </is>
       </c>
       <c r="G51">
-        <v>20.24</v>
+        <v>43.34527702</v>
       </c>
       <c r="H51">
-        <v>12.4</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I51">
-        <v>29.94</v>
+        <v>19.91</v>
+      </c>
+      <c r="J51">
+        <v>13.64</v>
+      </c>
+      <c r="K51">
+        <v>27.41</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2486,19 +2796,25 @@
         </is>
       </c>
       <c r="G52">
-        <v>20.9</v>
+        <v>43.34527702</v>
       </c>
       <c r="H52">
-        <v>14.8</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I52">
-        <v>29.04</v>
+        <v>21.4</v>
+      </c>
+      <c r="J52">
+        <v>14.58</v>
+      </c>
+      <c r="K52">
+        <v>33.03</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2527,19 +2843,25 @@
         </is>
       </c>
       <c r="G53">
-        <v>21.05</v>
+        <v>43.34527702</v>
       </c>
       <c r="H53">
-        <v>14.71</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I53">
-        <v>28.1</v>
+        <v>21.33</v>
+      </c>
+      <c r="J53">
+        <v>14.63</v>
+      </c>
+      <c r="K53">
+        <v>31.31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2568,19 +2890,25 @@
         </is>
       </c>
       <c r="G54">
-        <v>20.75</v>
+        <v>43.34527702</v>
       </c>
       <c r="H54">
-        <v>14.41</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I54">
-        <v>28.23</v>
+        <v>21.28</v>
+      </c>
+      <c r="J54">
+        <v>14.15</v>
+      </c>
+      <c r="K54">
+        <v>32.34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2609,19 +2937,25 @@
         </is>
       </c>
       <c r="G55">
-        <v>20.61</v>
+        <v>43.34527702</v>
       </c>
       <c r="H55">
-        <v>14.03</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I55">
-        <v>28.23</v>
+        <v>21.26</v>
+      </c>
+      <c r="J55">
+        <v>14.11</v>
+      </c>
+      <c r="K55">
+        <v>32.22</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2650,19 +2984,25 @@
         </is>
       </c>
       <c r="G56">
-        <v>18.56</v>
+        <v>43.34527702</v>
       </c>
       <c r="H56">
-        <v>13.34</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I56">
-        <v>24.32</v>
+        <v>18.39</v>
+      </c>
+      <c r="J56">
+        <v>13.68</v>
+      </c>
+      <c r="K56">
+        <v>25.69</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2691,19 +3031,25 @@
         </is>
       </c>
       <c r="G57">
-        <v>17.14</v>
+        <v>43.34527702</v>
       </c>
       <c r="H57">
+        <v>-122.73678676</v>
+      </c>
+      <c r="I57">
+        <v>17.48</v>
+      </c>
+      <c r="J57">
         <v>9.949999999999999</v>
       </c>
-      <c r="I57">
-        <v>24.49</v>
+      <c r="K57">
+        <v>27.58</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2732,19 +3078,25 @@
         </is>
       </c>
       <c r="G58">
-        <v>18.48</v>
+        <v>43.34527702</v>
       </c>
       <c r="H58">
-        <v>11.45</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I58">
-        <v>25.65</v>
+        <v>18.86</v>
+      </c>
+      <c r="J58">
+        <v>11.75</v>
+      </c>
+      <c r="K58">
+        <v>28.05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2773,19 +3125,25 @@
         </is>
       </c>
       <c r="G59">
-        <v>19.62</v>
+        <v>43.34527702</v>
       </c>
       <c r="H59">
-        <v>16</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I59">
-        <v>24.58</v>
+        <v>19.84</v>
+      </c>
+      <c r="J59">
+        <v>15.83</v>
+      </c>
+      <c r="K59">
+        <v>26.64</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2814,19 +3172,25 @@
         </is>
       </c>
       <c r="G60">
-        <v>18.87</v>
+        <v>43.34527702</v>
       </c>
       <c r="H60">
-        <v>12.05</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I60">
-        <v>26.51</v>
+        <v>19.28</v>
+      </c>
+      <c r="J60">
+        <v>12.14</v>
+      </c>
+      <c r="K60">
+        <v>28.48</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2855,19 +3219,25 @@
         </is>
       </c>
       <c r="G61">
-        <v>17</v>
+        <v>43.34527702</v>
       </c>
       <c r="H61">
-        <v>14.03</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I61">
-        <v>25.57</v>
+        <v>17.54</v>
+      </c>
+      <c r="J61">
+        <v>13.81</v>
+      </c>
+      <c r="K61">
+        <v>27.71</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2896,19 +3266,25 @@
         </is>
       </c>
       <c r="G62">
-        <v>15.1</v>
+        <v>43.34527702</v>
       </c>
       <c r="H62">
-        <v>11.49</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I62">
-        <v>19.52</v>
+        <v>17.69</v>
+      </c>
+      <c r="J62">
+        <v>13.47</v>
+      </c>
+      <c r="K62">
+        <v>26.38</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2937,19 +3313,25 @@
         </is>
       </c>
       <c r="G63">
-        <v>16.73</v>
+        <v>43.34527702</v>
       </c>
       <c r="H63">
-        <v>11.88</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I63">
-        <v>23.72</v>
+        <v>18.59</v>
+      </c>
+      <c r="J63">
+        <v>13.77</v>
+      </c>
+      <c r="K63">
+        <v>26.72</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2978,19 +3360,25 @@
         </is>
       </c>
       <c r="G64">
-        <v>16.69</v>
+        <v>43.34527702</v>
       </c>
       <c r="H64">
-        <v>10.55</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I64">
-        <v>24.54</v>
+        <v>18.2</v>
+      </c>
+      <c r="J64">
+        <v>11.28</v>
+      </c>
+      <c r="K64">
+        <v>28.53</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3019,19 +3407,25 @@
         </is>
       </c>
       <c r="G65">
-        <v>17.24</v>
+        <v>43.34527702</v>
       </c>
       <c r="H65">
-        <v>10.94</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I65">
-        <v>24.79</v>
+        <v>18.19</v>
+      </c>
+      <c r="J65">
+        <v>11.28</v>
+      </c>
+      <c r="K65">
+        <v>27.67</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3060,19 +3454,25 @@
         </is>
       </c>
       <c r="G66">
-        <v>16.61</v>
+        <v>43.34527702</v>
       </c>
       <c r="H66">
-        <v>12.7</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I66">
-        <v>21.49</v>
+        <v>16.54</v>
+      </c>
+      <c r="J66">
+        <v>12.91</v>
+      </c>
+      <c r="K66">
+        <v>20.76</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3101,19 +3501,25 @@
         </is>
       </c>
       <c r="G67">
-        <v>12.48</v>
+        <v>43.34527702</v>
       </c>
       <c r="H67">
-        <v>11.54</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I67">
-        <v>14.67</v>
+        <v>13.43</v>
+      </c>
+      <c r="J67">
+        <v>11.75</v>
+      </c>
+      <c r="K67">
+        <v>17.93</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3142,19 +3548,25 @@
         </is>
       </c>
       <c r="G68">
-        <v>12.42</v>
+        <v>43.34527702</v>
       </c>
       <c r="H68">
-        <v>10.12</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I68">
-        <v>15.27</v>
+        <v>13.91</v>
+      </c>
+      <c r="J68">
+        <v>11.49</v>
+      </c>
+      <c r="K68">
+        <v>20.93</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3183,19 +3595,25 @@
         </is>
       </c>
       <c r="G69">
-        <v>13.28</v>
+        <v>43.34527702</v>
       </c>
       <c r="H69">
-        <v>6.9</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I69">
-        <v>20.72</v>
+        <v>15.94</v>
+      </c>
+      <c r="J69">
+        <v>9.56</v>
+      </c>
+      <c r="K69">
+        <v>26.77</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3224,19 +3642,25 @@
         </is>
       </c>
       <c r="G70">
-        <v>16.51</v>
+        <v>43.34527702</v>
       </c>
       <c r="H70">
-        <v>9.74</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I70">
-        <v>26.12</v>
+        <v>18.28</v>
+      </c>
+      <c r="J70">
+        <v>10.68</v>
+      </c>
+      <c r="K70">
+        <v>30.46</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3265,19 +3689,25 @@
         </is>
       </c>
       <c r="G71">
-        <v>16.64</v>
+        <v>43.34527702</v>
       </c>
       <c r="H71">
-        <v>11.37</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I71">
-        <v>23.29</v>
+        <v>17.37</v>
+      </c>
+      <c r="J71">
+        <v>11.75</v>
+      </c>
+      <c r="K71">
+        <v>25.95</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3306,19 +3736,25 @@
         </is>
       </c>
       <c r="G72">
-        <v>15.25</v>
+        <v>43.34527702</v>
       </c>
       <c r="H72">
-        <v>8.279999999999999</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I72">
-        <v>23.81</v>
+        <v>16.33</v>
+      </c>
+      <c r="J72">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="K72">
+        <v>27.93</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3347,19 +3783,25 @@
         </is>
       </c>
       <c r="G73">
-        <v>17.41</v>
+        <v>43.34527702</v>
       </c>
       <c r="H73">
-        <v>8.92</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I73">
-        <v>29.3</v>
+        <v>19.18</v>
+      </c>
+      <c r="J73">
+        <v>9.69</v>
+      </c>
+      <c r="K73">
+        <v>34.49</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3388,19 +3830,25 @@
         </is>
       </c>
       <c r="G74">
-        <v>19.55</v>
+        <v>43.34527702</v>
       </c>
       <c r="H74">
-        <v>11.92</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I74">
-        <v>30.97</v>
+        <v>21.32</v>
+      </c>
+      <c r="J74">
+        <v>13.04</v>
+      </c>
+      <c r="K74">
+        <v>35.82</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3429,19 +3877,25 @@
         </is>
       </c>
       <c r="G75">
-        <v>20.76</v>
+        <v>43.34527702</v>
       </c>
       <c r="H75">
-        <v>12.82</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I75">
-        <v>30.97</v>
+        <v>22.03</v>
+      </c>
+      <c r="J75">
+        <v>13.55</v>
+      </c>
+      <c r="K75">
+        <v>34.62</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3470,19 +3924,25 @@
         </is>
       </c>
       <c r="G76">
-        <v>21.44</v>
+        <v>43.34527702</v>
       </c>
       <c r="H76">
-        <v>15.4</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I76">
-        <v>30.16</v>
+        <v>22.07</v>
+      </c>
+      <c r="J76">
+        <v>14.8</v>
+      </c>
+      <c r="K76">
+        <v>31.06</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3511,19 +3971,25 @@
         </is>
       </c>
       <c r="G77">
-        <v>18.11</v>
+        <v>43.34527702</v>
       </c>
       <c r="H77">
-        <v>12.91</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I77">
-        <v>23.89</v>
+        <v>17.65</v>
+      </c>
+      <c r="J77">
+        <v>13.21</v>
+      </c>
+      <c r="K77">
+        <v>25.09</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3552,19 +4018,25 @@
         </is>
       </c>
       <c r="G78">
-        <v>17.56</v>
+        <v>43.34527702</v>
       </c>
       <c r="H78">
-        <v>10.46</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I78">
-        <v>26.42</v>
+        <v>18.56</v>
+      </c>
+      <c r="J78">
+        <v>10.64</v>
+      </c>
+      <c r="K78">
+        <v>30.8</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3593,19 +4065,25 @@
         </is>
       </c>
       <c r="G79">
-        <v>18.8</v>
+        <v>43.34527702</v>
       </c>
       <c r="H79">
-        <v>12.27</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I79">
-        <v>29.38</v>
+        <v>20.89</v>
+      </c>
+      <c r="J79">
+        <v>12.65</v>
+      </c>
+      <c r="K79">
+        <v>35.56</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3634,19 +4112,25 @@
         </is>
       </c>
       <c r="G80">
-        <v>20.03</v>
+        <v>43.34527702</v>
       </c>
       <c r="H80">
-        <v>12.78</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I80">
-        <v>31.4</v>
+        <v>22.12</v>
+      </c>
+      <c r="J80">
+        <v>13.68</v>
+      </c>
+      <c r="K80">
+        <v>37.66</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3675,19 +4159,25 @@
         </is>
       </c>
       <c r="G81">
-        <v>20.35</v>
+        <v>43.34527702</v>
       </c>
       <c r="H81">
-        <v>14.15</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I81">
-        <v>29</v>
+        <v>21.95</v>
+      </c>
+      <c r="J81">
+        <v>14.58</v>
+      </c>
+      <c r="K81">
+        <v>34.96</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3716,19 +4206,25 @@
         </is>
       </c>
       <c r="G82">
-        <v>20.79</v>
+        <v>43.34527702</v>
       </c>
       <c r="H82">
-        <v>15.27</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I82">
-        <v>30.24</v>
+        <v>21.91</v>
+      </c>
+      <c r="J82">
+        <v>15.14</v>
+      </c>
+      <c r="K82">
+        <v>33.29</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3757,19 +4253,25 @@
         </is>
       </c>
       <c r="G83">
-        <v>19.82</v>
+        <v>43.34527702</v>
       </c>
       <c r="H83">
-        <v>14.33</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I83">
-        <v>28.31</v>
+        <v>21.44</v>
+      </c>
+      <c r="J83">
+        <v>14.15</v>
+      </c>
+      <c r="K83">
+        <v>36.89</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3798,19 +4300,25 @@
         </is>
       </c>
       <c r="G84">
-        <v>19.4</v>
+        <v>43.34527702</v>
       </c>
       <c r="H84">
-        <v>13.17</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I84">
-        <v>29.3</v>
+        <v>20.71</v>
+      </c>
+      <c r="J84">
+        <v>13.25</v>
+      </c>
+      <c r="K84">
+        <v>32.94</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3839,19 +4347,25 @@
         </is>
       </c>
       <c r="G85">
-        <v>18.64</v>
+        <v>43.34527702</v>
       </c>
       <c r="H85">
-        <v>12.52</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I85">
-        <v>26.51</v>
+        <v>19.25</v>
+      </c>
+      <c r="J85">
+        <v>12.44</v>
+      </c>
+      <c r="K85">
+        <v>32.52</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3880,19 +4394,25 @@
         </is>
       </c>
       <c r="G86">
-        <v>13</v>
+        <v>43.34527702</v>
       </c>
       <c r="H86">
-        <v>10.51</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I86">
-        <v>14.71</v>
+        <v>13.24</v>
+      </c>
+      <c r="J86">
+        <v>10.21</v>
+      </c>
+      <c r="K86">
+        <v>16.56</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3921,19 +4441,25 @@
         </is>
       </c>
       <c r="G87">
-        <v>13.54</v>
+        <v>43.34527702</v>
       </c>
       <c r="H87">
-        <v>10.77</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I87">
-        <v>16.39</v>
+        <v>14.18</v>
+      </c>
+      <c r="J87">
+        <v>11.54</v>
+      </c>
+      <c r="K87">
+        <v>17.72</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3962,19 +4488,25 @@
         </is>
       </c>
       <c r="G88">
-        <v>13.34</v>
+        <v>43.34527702</v>
       </c>
       <c r="H88">
-        <v>8.279999999999999</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I88">
-        <v>19.9</v>
+        <v>15.48</v>
+      </c>
+      <c r="J88">
+        <v>9.91</v>
+      </c>
+      <c r="K88">
+        <v>25.52</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4003,19 +4535,25 @@
         </is>
       </c>
       <c r="G89">
-        <v>14.83</v>
+        <v>43.34527702</v>
       </c>
       <c r="H89">
-        <v>10.21</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I89">
-        <v>21.28</v>
+        <v>16.4</v>
+      </c>
+      <c r="J89">
+        <v>10.81</v>
+      </c>
+      <c r="K89">
+        <v>26.34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4044,19 +4582,25 @@
         </is>
       </c>
       <c r="G90">
-        <v>14.05</v>
+        <v>43.34527702</v>
       </c>
       <c r="H90">
-        <v>11.71</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I90">
-        <v>17.5</v>
+        <v>15.73</v>
+      </c>
+      <c r="J90">
+        <v>12.74</v>
+      </c>
+      <c r="K90">
+        <v>20.33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4085,19 +4629,25 @@
         </is>
       </c>
       <c r="G91">
-        <v>12.63</v>
+        <v>43.34527702</v>
       </c>
       <c r="H91">
-        <v>8.66</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I91">
-        <v>17.24</v>
+        <v>12.91</v>
+      </c>
+      <c r="J91">
+        <v>8.75</v>
+      </c>
+      <c r="K91">
+        <v>18.96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4126,19 +4676,25 @@
         </is>
       </c>
       <c r="G92">
-        <v>13.4</v>
+        <v>43.34527702</v>
       </c>
       <c r="H92">
-        <v>9.69</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I92">
-        <v>18.74</v>
+        <v>14.09</v>
+      </c>
+      <c r="J92">
+        <v>11.02</v>
+      </c>
+      <c r="K92">
+        <v>19.65</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4167,19 +4723,25 @@
         </is>
       </c>
       <c r="G93">
-        <v>14.49</v>
+        <v>43.34527702</v>
       </c>
       <c r="H93">
-        <v>9.390000000000001</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I93">
-        <v>21.23</v>
+        <v>16.01</v>
+      </c>
+      <c r="J93">
+        <v>11.45</v>
+      </c>
+      <c r="K93">
+        <v>27.97</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4208,19 +4770,25 @@
         </is>
       </c>
       <c r="G94">
-        <v>14.61</v>
+        <v>43.34527702</v>
       </c>
       <c r="H94">
-        <v>9.050000000000001</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I94">
-        <v>22.22</v>
+        <v>16.28</v>
+      </c>
+      <c r="J94">
+        <v>10.94</v>
+      </c>
+      <c r="K94">
+        <v>26.12</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4249,19 +4817,25 @@
         </is>
       </c>
       <c r="G95">
-        <v>14.01</v>
+        <v>43.34527702</v>
       </c>
       <c r="H95">
-        <v>9.01</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I95">
-        <v>21.1</v>
+        <v>15.3</v>
+      </c>
+      <c r="J95">
+        <v>9.74</v>
+      </c>
+      <c r="K95">
+        <v>25.35</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4290,19 +4864,25 @@
         </is>
       </c>
       <c r="G96">
-        <v>9.01</v>
+        <v>43.34527702</v>
       </c>
       <c r="H96">
-        <v>6.35</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I96">
-        <v>17.46</v>
+        <v>10.65</v>
+      </c>
+      <c r="J96">
+        <v>7.08</v>
+      </c>
+      <c r="K96">
+        <v>27.24</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4331,19 +4911,25 @@
         </is>
       </c>
       <c r="G97">
-        <v>23.1</v>
+        <v>43.29146447</v>
       </c>
       <c r="H97">
-        <v>14.33</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I97">
-        <v>41.48</v>
+        <v>22.28</v>
+      </c>
+      <c r="J97">
+        <v>14.37</v>
+      </c>
+      <c r="K97">
+        <v>28.53</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4372,19 +4958,25 @@
         </is>
       </c>
       <c r="G98">
-        <v>18.68</v>
+        <v>43.29146447</v>
       </c>
       <c r="H98">
+        <v>-122.54551127</v>
+      </c>
+      <c r="I98">
+        <v>18.92</v>
+      </c>
+      <c r="J98">
         <v>10.51</v>
       </c>
-      <c r="I98">
-        <v>29.08</v>
+      <c r="K98">
+        <v>29.34</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4413,19 +5005,25 @@
         </is>
       </c>
       <c r="G99">
-        <v>20</v>
+        <v>43.29146447</v>
       </c>
       <c r="H99">
-        <v>12.18</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I99">
-        <v>30.89</v>
+        <v>20.55</v>
+      </c>
+      <c r="J99">
+        <v>12.57</v>
+      </c>
+      <c r="K99">
+        <v>30.37</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4454,19 +5052,25 @@
         </is>
       </c>
       <c r="G100">
-        <v>20.31</v>
+        <v>43.29146447</v>
       </c>
       <c r="H100">
-        <v>12.18</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I100">
-        <v>30.16</v>
+        <v>20.6</v>
+      </c>
+      <c r="J100">
+        <v>12.48</v>
+      </c>
+      <c r="K100">
+        <v>30.11</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4495,19 +5099,25 @@
         </is>
       </c>
       <c r="G101">
-        <v>18.03</v>
+        <v>43.29146447</v>
       </c>
       <c r="H101">
-        <v>12.48</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I101">
-        <v>25.99</v>
+        <v>18.6</v>
+      </c>
+      <c r="J101">
+        <v>10.94</v>
+      </c>
+      <c r="K101">
+        <v>26.51</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4536,19 +5146,25 @@
         </is>
       </c>
       <c r="G102">
-        <v>18.25</v>
+        <v>43.29146447</v>
       </c>
       <c r="H102">
-        <v>10.38</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I102">
-        <v>28.74</v>
+        <v>18.68</v>
+      </c>
+      <c r="J102">
+        <v>10.29</v>
+      </c>
+      <c r="K102">
+        <v>29.13</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4577,19 +5193,25 @@
         </is>
       </c>
       <c r="G103">
-        <v>20.77</v>
+        <v>43.29146447</v>
       </c>
       <c r="H103">
-        <v>11.92</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I103">
-        <v>31.53</v>
+        <v>21.14</v>
+      </c>
+      <c r="J103">
+        <v>12.01</v>
+      </c>
+      <c r="K103">
+        <v>32</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4618,19 +5240,25 @@
         </is>
       </c>
       <c r="G104">
-        <v>17.54</v>
+        <v>43.29146447</v>
       </c>
       <c r="H104">
-        <v>14.37</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I104">
-        <v>21.88</v>
+        <v>18.33</v>
+      </c>
+      <c r="J104">
+        <v>13.81</v>
+      </c>
+      <c r="K104">
+        <v>23.25</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4659,19 +5287,25 @@
         </is>
       </c>
       <c r="G105">
-        <v>17.43</v>
+        <v>43.29146447</v>
       </c>
       <c r="H105">
-        <v>13.12</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I105">
-        <v>25.65</v>
+        <v>17.81</v>
+      </c>
+      <c r="J105">
+        <v>13.47</v>
+      </c>
+      <c r="K105">
+        <v>25.05</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4700,19 +5334,25 @@
         </is>
       </c>
       <c r="G106">
-        <v>18.14</v>
+        <v>43.29146447</v>
       </c>
       <c r="H106">
-        <v>10.34</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I106">
-        <v>28.61</v>
+        <v>18.26</v>
+      </c>
+      <c r="J106">
+        <v>10.21</v>
+      </c>
+      <c r="K106">
+        <v>27.93</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4741,19 +5381,25 @@
         </is>
       </c>
       <c r="G107">
-        <v>18.66</v>
+        <v>43.29146447</v>
       </c>
       <c r="H107">
-        <v>11.71</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I107">
-        <v>26.34</v>
+        <v>18.42</v>
+      </c>
+      <c r="J107">
+        <v>11.79</v>
+      </c>
+      <c r="K107">
+        <v>26.3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4782,19 +5428,25 @@
         </is>
       </c>
       <c r="G108">
-        <v>19.5</v>
+        <v>43.29146447</v>
       </c>
       <c r="H108">
-        <v>12.31</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I108">
-        <v>28.7</v>
+        <v>19.65</v>
+      </c>
+      <c r="J108">
+        <v>12.44</v>
+      </c>
+      <c r="K108">
+        <v>28.1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4823,19 +5475,25 @@
         </is>
       </c>
       <c r="G109">
-        <v>19.66</v>
+        <v>43.29146447</v>
       </c>
       <c r="H109">
-        <v>12.35</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I109">
-        <v>29.3</v>
+        <v>19.54</v>
+      </c>
+      <c r="J109">
+        <v>12.1</v>
+      </c>
+      <c r="K109">
+        <v>28.87</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4864,19 +5522,25 @@
         </is>
       </c>
       <c r="G110">
-        <v>19.39</v>
+        <v>43.29146447</v>
       </c>
       <c r="H110">
-        <v>11.84</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I110">
-        <v>29.17</v>
+        <v>19.35</v>
+      </c>
+      <c r="J110">
+        <v>11.37</v>
+      </c>
+      <c r="K110">
+        <v>29.38</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4905,19 +5569,25 @@
         </is>
       </c>
       <c r="G111">
-        <v>19.48</v>
+        <v>43.29146447</v>
       </c>
       <c r="H111">
-        <v>10.89</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I111">
-        <v>30.59</v>
+        <v>19.58</v>
+      </c>
+      <c r="J111">
+        <v>10.04</v>
+      </c>
+      <c r="K111">
+        <v>30.71</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4946,19 +5616,25 @@
         </is>
       </c>
       <c r="G112">
-        <v>21.85</v>
+        <v>43.29146447</v>
       </c>
       <c r="H112">
-        <v>12.31</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I112">
-        <v>35.3</v>
+        <v>22.16</v>
+      </c>
+      <c r="J112">
+        <v>12.1</v>
+      </c>
+      <c r="K112">
+        <v>33.97</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4987,19 +5663,25 @@
         </is>
       </c>
       <c r="G113">
-        <v>24.16</v>
+        <v>43.29146447</v>
       </c>
       <c r="H113">
-        <v>14.37</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I113">
-        <v>37.28</v>
+        <v>24.12</v>
+      </c>
+      <c r="J113">
+        <v>14.15</v>
+      </c>
+      <c r="K113">
+        <v>36.72</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5028,19 +5710,25 @@
         </is>
       </c>
       <c r="G114">
-        <v>24.99</v>
+        <v>43.29146447</v>
       </c>
       <c r="H114">
-        <v>16</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I114">
-        <v>38.39</v>
+        <v>24.65</v>
+      </c>
+      <c r="J114">
+        <v>15.31</v>
+      </c>
+      <c r="K114">
+        <v>37.75</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5069,19 +5757,25 @@
         </is>
       </c>
       <c r="G115">
-        <v>24.25</v>
+        <v>43.29146447</v>
       </c>
       <c r="H115">
-        <v>14.54</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I115">
-        <v>37.84</v>
+        <v>23.68</v>
+      </c>
+      <c r="J115">
+        <v>13.47</v>
+      </c>
+      <c r="K115">
+        <v>36.55</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5110,19 +5804,25 @@
         </is>
       </c>
       <c r="G116">
-        <v>24.62</v>
+        <v>43.29146447</v>
       </c>
       <c r="H116">
-        <v>15.27</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I116">
-        <v>38.09</v>
+        <v>24.46</v>
+      </c>
+      <c r="J116">
+        <v>14.8</v>
+      </c>
+      <c r="K116">
+        <v>36.93</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5151,19 +5851,25 @@
         </is>
       </c>
       <c r="G117">
-        <v>25.37</v>
+        <v>43.29146447</v>
       </c>
       <c r="H117">
+        <v>-122.54551127</v>
+      </c>
+      <c r="I117">
+        <v>25.17</v>
+      </c>
+      <c r="J117">
         <v>17.16</v>
       </c>
-      <c r="I117">
-        <v>37.02</v>
+      <c r="K117">
+        <v>35.18</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5192,19 +5898,25 @@
         </is>
       </c>
       <c r="G118">
-        <v>24.31</v>
+        <v>43.29146447</v>
       </c>
       <c r="H118">
-        <v>16.21</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I118">
-        <v>35.69</v>
+        <v>24.33</v>
+      </c>
+      <c r="J118">
+        <v>16.47</v>
+      </c>
+      <c r="K118">
+        <v>33.63</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5233,19 +5945,25 @@
         </is>
       </c>
       <c r="G119">
-        <v>22.52</v>
+        <v>43.29146447</v>
       </c>
       <c r="H119">
-        <v>14.15</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I119">
-        <v>33.16</v>
+        <v>22.79</v>
+      </c>
+      <c r="J119">
+        <v>14.5</v>
+      </c>
+      <c r="K119">
+        <v>31.7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5274,19 +5992,25 @@
         </is>
       </c>
       <c r="G120">
-        <v>22.67</v>
+        <v>43.29146447</v>
       </c>
       <c r="H120">
-        <v>14.28</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I120">
-        <v>32.99</v>
+        <v>22.95</v>
+      </c>
+      <c r="J120">
+        <v>14.54</v>
+      </c>
+      <c r="K120">
+        <v>32.09</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -5315,19 +6039,25 @@
         </is>
       </c>
       <c r="G121">
-        <v>23.79</v>
+        <v>43.29146447</v>
       </c>
       <c r="H121">
-        <v>15.1</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I121">
-        <v>35.39</v>
+        <v>23.83</v>
+      </c>
+      <c r="J121">
+        <v>15.23</v>
+      </c>
+      <c r="K121">
+        <v>33.76</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -5356,19 +6086,25 @@
         </is>
       </c>
       <c r="G122">
-        <v>23.91</v>
+        <v>43.29146447</v>
       </c>
       <c r="H122">
-        <v>16.26</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I122">
-        <v>34.62</v>
+        <v>24.32</v>
+      </c>
+      <c r="J122">
+        <v>16.73</v>
+      </c>
+      <c r="K122">
+        <v>33.85</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -5397,19 +6133,25 @@
         </is>
       </c>
       <c r="G123">
-        <v>24.13</v>
+        <v>43.29146447</v>
       </c>
       <c r="H123">
-        <v>16.04</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I123">
-        <v>34.7</v>
+        <v>24.19</v>
+      </c>
+      <c r="J123">
+        <v>16.26</v>
+      </c>
+      <c r="K123">
+        <v>34.23</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -5438,19 +6180,25 @@
         </is>
       </c>
       <c r="G124">
-        <v>23.41</v>
+        <v>43.29146447</v>
       </c>
       <c r="H124">
-        <v>16.47</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I124">
-        <v>33.89</v>
+        <v>21.84</v>
+      </c>
+      <c r="J124">
+        <v>16.08</v>
+      </c>
+      <c r="K124">
+        <v>34.23</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -5479,19 +6227,25 @@
         </is>
       </c>
       <c r="G125">
-        <v>22.39</v>
+        <v>43.29146447</v>
       </c>
       <c r="H125">
-        <v>15.23</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I125">
-        <v>31.27</v>
+        <v>22.7</v>
+      </c>
+      <c r="J125">
+        <v>15.48</v>
+      </c>
+      <c r="K125">
+        <v>31.36</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -5520,19 +6274,25 @@
         </is>
       </c>
       <c r="G126">
-        <v>22.48</v>
+        <v>43.29146447</v>
       </c>
       <c r="H126">
-        <v>14.07</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I126">
-        <v>33.63</v>
+        <v>22.36</v>
+      </c>
+      <c r="J126">
+        <v>14.03</v>
+      </c>
+      <c r="K126">
+        <v>31.66</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -5561,19 +6321,25 @@
         </is>
       </c>
       <c r="G127">
-        <v>22.49</v>
+        <v>43.29146447</v>
       </c>
       <c r="H127">
-        <v>14.58</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I127">
-        <v>33.42</v>
+        <v>22.16</v>
+      </c>
+      <c r="J127">
+        <v>14.67</v>
+      </c>
+      <c r="K127">
+        <v>31.1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -5602,19 +6368,25 @@
         </is>
       </c>
       <c r="G128">
-        <v>22.4</v>
+        <v>43.29146447</v>
       </c>
       <c r="H128">
-        <v>14.75</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I128">
-        <v>32.47</v>
+        <v>22.33</v>
+      </c>
+      <c r="J128">
+        <v>14.97</v>
+      </c>
+      <c r="K128">
+        <v>30.07</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -5643,19 +6415,25 @@
         </is>
       </c>
       <c r="G129">
-        <v>20.21</v>
+        <v>43.29146447</v>
       </c>
       <c r="H129">
-        <v>17.24</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I129">
-        <v>24.62</v>
+        <v>21.38</v>
+      </c>
+      <c r="J129">
+        <v>17.89</v>
+      </c>
+      <c r="K129">
+        <v>25.87</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5684,19 +6462,25 @@
         </is>
       </c>
       <c r="G130">
-        <v>19.95</v>
+        <v>43.29146447</v>
       </c>
       <c r="H130">
-        <v>16.08</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I130">
-        <v>29.13</v>
+        <v>20.19</v>
+      </c>
+      <c r="J130">
+        <v>16.64</v>
+      </c>
+      <c r="K130">
+        <v>26.04</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5725,19 +6509,25 @@
         </is>
       </c>
       <c r="G131">
-        <v>19.91</v>
+        <v>43.29146447</v>
       </c>
       <c r="H131">
-        <v>12.35</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I131">
-        <v>30.5</v>
+        <v>20.06</v>
+      </c>
+      <c r="J131">
+        <v>12.57</v>
+      </c>
+      <c r="K131">
+        <v>28.44</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5766,19 +6556,25 @@
         </is>
       </c>
       <c r="G132">
-        <v>20.8</v>
+        <v>43.29146447</v>
       </c>
       <c r="H132">
-        <v>14.07</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I132">
-        <v>31.57</v>
+        <v>20.35</v>
+      </c>
+      <c r="J132">
+        <v>14.58</v>
+      </c>
+      <c r="K132">
+        <v>27.97</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5807,19 +6603,25 @@
         </is>
       </c>
       <c r="G133">
-        <v>18.99</v>
+        <v>43.29146447</v>
       </c>
       <c r="H133">
-        <v>14.67</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I133">
-        <v>27.41</v>
+        <v>19.09</v>
+      </c>
+      <c r="J133">
+        <v>13.9</v>
+      </c>
+      <c r="K133">
+        <v>25.01</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -5848,19 +6650,25 @@
         </is>
       </c>
       <c r="G134">
-        <v>18.27</v>
+        <v>43.29146447</v>
       </c>
       <c r="H134">
-        <v>11.49</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I134">
-        <v>28.35</v>
+        <v>17.98</v>
+      </c>
+      <c r="J134">
+        <v>11.75</v>
+      </c>
+      <c r="K134">
+        <v>24.97</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5889,19 +6697,25 @@
         </is>
       </c>
       <c r="G135">
-        <v>18.96</v>
+        <v>43.29146447</v>
       </c>
       <c r="H135">
-        <v>12.01</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I135">
-        <v>29.68</v>
+        <v>18.43</v>
+      </c>
+      <c r="J135">
+        <v>12.14</v>
+      </c>
+      <c r="K135">
+        <v>25.95</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -5930,19 +6744,25 @@
         </is>
       </c>
       <c r="G136">
-        <v>19.08</v>
+        <v>43.29146447</v>
       </c>
       <c r="H136">
-        <v>12.05</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I136">
-        <v>27.67</v>
+        <v>18.85</v>
+      </c>
+      <c r="J136">
+        <v>11.71</v>
+      </c>
+      <c r="K136">
+        <v>27.63</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -5971,19 +6791,25 @@
         </is>
       </c>
       <c r="G137">
-        <v>19.33</v>
+        <v>43.29146447</v>
       </c>
       <c r="H137">
-        <v>12.95</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I137">
-        <v>27.02</v>
+        <v>19.1</v>
+      </c>
+      <c r="J137">
+        <v>12.78</v>
+      </c>
+      <c r="K137">
+        <v>26.21</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6012,19 +6838,25 @@
         </is>
       </c>
       <c r="G138">
-        <v>22.18</v>
+        <v>43.29146447</v>
       </c>
       <c r="H138">
-        <v>17.37</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I138">
-        <v>30.16</v>
+        <v>21.85</v>
+      </c>
+      <c r="J138">
+        <v>16.51</v>
+      </c>
+      <c r="K138">
+        <v>28.4</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6053,19 +6885,25 @@
         </is>
       </c>
       <c r="G139">
-        <v>22.68</v>
+        <v>43.29146447</v>
       </c>
       <c r="H139">
-        <v>15.14</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I139">
-        <v>33.29</v>
+        <v>22.19</v>
+      </c>
+      <c r="J139">
+        <v>14.67</v>
+      </c>
+      <c r="K139">
+        <v>31.1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -6094,19 +6932,25 @@
         </is>
       </c>
       <c r="G140">
-        <v>25.11</v>
+        <v>43.29146447</v>
       </c>
       <c r="H140">
-        <v>17.72</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I140">
-        <v>34.79</v>
+        <v>24.48</v>
+      </c>
+      <c r="J140">
+        <v>17.2</v>
+      </c>
+      <c r="K140">
+        <v>32.99</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6135,19 +6979,25 @@
         </is>
       </c>
       <c r="G141">
-        <v>24.89</v>
+        <v>43.29146447</v>
       </c>
       <c r="H141">
-        <v>17.59</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I141">
-        <v>33.59</v>
+        <v>24.65</v>
+      </c>
+      <c r="J141">
+        <v>18.1</v>
+      </c>
+      <c r="K141">
+        <v>31.96</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -6176,19 +7026,25 @@
         </is>
       </c>
       <c r="G142">
-        <v>20.91</v>
+        <v>43.29146447</v>
       </c>
       <c r="H142">
-        <v>17.93</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I142">
-        <v>24.54</v>
+        <v>20.99</v>
+      </c>
+      <c r="J142">
+        <v>19.04</v>
+      </c>
+      <c r="K142">
+        <v>23.42</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -6217,19 +7073,25 @@
         </is>
       </c>
       <c r="G143">
-        <v>23.77</v>
+        <v>43.29146447</v>
       </c>
       <c r="H143">
-        <v>16.94</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I143">
-        <v>34.06</v>
+        <v>23.07</v>
+      </c>
+      <c r="J143">
+        <v>16</v>
+      </c>
+      <c r="K143">
+        <v>31.92</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -6258,19 +7120,25 @@
         </is>
       </c>
       <c r="G144">
-        <v>22.63</v>
+        <v>43.29146447</v>
       </c>
       <c r="H144">
+        <v>-122.54551127</v>
+      </c>
+      <c r="I144">
+        <v>22.55</v>
+      </c>
+      <c r="J144">
         <v>16.13</v>
       </c>
-      <c r="I144">
-        <v>33.12</v>
+      <c r="K144">
+        <v>29.94</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -6299,19 +7167,25 @@
         </is>
       </c>
       <c r="G145">
-        <v>21.3</v>
+        <v>43.29146447</v>
       </c>
       <c r="H145">
-        <v>13.94</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I145">
-        <v>31.57</v>
+        <v>20.92</v>
+      </c>
+      <c r="J145">
+        <v>14.37</v>
+      </c>
+      <c r="K145">
+        <v>28.53</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -6340,19 +7214,25 @@
         </is>
       </c>
       <c r="G146">
-        <v>19.91</v>
+        <v>43.29146447</v>
       </c>
       <c r="H146">
-        <v>13.64</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I146">
-        <v>27.41</v>
+        <v>20.24</v>
+      </c>
+      <c r="J146">
+        <v>12.4</v>
+      </c>
+      <c r="K146">
+        <v>29.94</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -6381,19 +7261,25 @@
         </is>
       </c>
       <c r="G147">
-        <v>21.4</v>
+        <v>43.29146447</v>
       </c>
       <c r="H147">
-        <v>14.58</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I147">
-        <v>33.03</v>
+        <v>20.9</v>
+      </c>
+      <c r="J147">
+        <v>14.8</v>
+      </c>
+      <c r="K147">
+        <v>29.04</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -6422,19 +7308,25 @@
         </is>
       </c>
       <c r="G148">
-        <v>21.33</v>
+        <v>43.29146447</v>
       </c>
       <c r="H148">
-        <v>14.63</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I148">
-        <v>31.31</v>
+        <v>21.05</v>
+      </c>
+      <c r="J148">
+        <v>14.71</v>
+      </c>
+      <c r="K148">
+        <v>28.1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -6463,19 +7355,25 @@
         </is>
       </c>
       <c r="G149">
-        <v>21.28</v>
+        <v>43.29146447</v>
       </c>
       <c r="H149">
-        <v>14.15</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I149">
-        <v>32.34</v>
+        <v>20.75</v>
+      </c>
+      <c r="J149">
+        <v>14.41</v>
+      </c>
+      <c r="K149">
+        <v>28.23</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -6504,19 +7402,25 @@
         </is>
       </c>
       <c r="G150">
-        <v>21.26</v>
+        <v>43.29146447</v>
       </c>
       <c r="H150">
-        <v>14.11</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I150">
-        <v>32.22</v>
+        <v>20.61</v>
+      </c>
+      <c r="J150">
+        <v>14.03</v>
+      </c>
+      <c r="K150">
+        <v>28.23</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -6545,19 +7449,25 @@
         </is>
       </c>
       <c r="G151">
-        <v>18.39</v>
+        <v>43.29146447</v>
       </c>
       <c r="H151">
-        <v>13.68</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I151">
-        <v>25.69</v>
+        <v>18.56</v>
+      </c>
+      <c r="J151">
+        <v>13.34</v>
+      </c>
+      <c r="K151">
+        <v>24.32</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -6586,19 +7496,25 @@
         </is>
       </c>
       <c r="G152">
-        <v>17.48</v>
+        <v>43.29146447</v>
       </c>
       <c r="H152">
+        <v>-122.54551127</v>
+      </c>
+      <c r="I152">
+        <v>17.14</v>
+      </c>
+      <c r="J152">
         <v>9.949999999999999</v>
       </c>
-      <c r="I152">
-        <v>27.58</v>
+      <c r="K152">
+        <v>24.49</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -6627,19 +7543,25 @@
         </is>
       </c>
       <c r="G153">
-        <v>18.86</v>
+        <v>43.29146447</v>
       </c>
       <c r="H153">
-        <v>11.75</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I153">
-        <v>28.05</v>
+        <v>18.48</v>
+      </c>
+      <c r="J153">
+        <v>11.45</v>
+      </c>
+      <c r="K153">
+        <v>25.65</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -6668,19 +7590,25 @@
         </is>
       </c>
       <c r="G154">
-        <v>19.84</v>
+        <v>43.29146447</v>
       </c>
       <c r="H154">
-        <v>15.83</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I154">
-        <v>26.64</v>
+        <v>19.62</v>
+      </c>
+      <c r="J154">
+        <v>16</v>
+      </c>
+      <c r="K154">
+        <v>24.58</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -6709,19 +7637,25 @@
         </is>
       </c>
       <c r="G155">
-        <v>19.28</v>
+        <v>43.29146447</v>
       </c>
       <c r="H155">
-        <v>12.14</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I155">
-        <v>28.48</v>
+        <v>18.87</v>
+      </c>
+      <c r="J155">
+        <v>12.05</v>
+      </c>
+      <c r="K155">
+        <v>26.51</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -6750,19 +7684,25 @@
         </is>
       </c>
       <c r="G156">
-        <v>17.54</v>
+        <v>43.29146447</v>
       </c>
       <c r="H156">
-        <v>13.81</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I156">
-        <v>27.71</v>
+        <v>17</v>
+      </c>
+      <c r="J156">
+        <v>14.03</v>
+      </c>
+      <c r="K156">
+        <v>25.57</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -6791,19 +7731,25 @@
         </is>
       </c>
       <c r="G157">
-        <v>17.69</v>
+        <v>43.29146447</v>
       </c>
       <c r="H157">
-        <v>13.47</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I157">
-        <v>26.38</v>
+        <v>15.1</v>
+      </c>
+      <c r="J157">
+        <v>11.49</v>
+      </c>
+      <c r="K157">
+        <v>19.52</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -6832,19 +7778,25 @@
         </is>
       </c>
       <c r="G158">
-        <v>18.59</v>
+        <v>43.29146447</v>
       </c>
       <c r="H158">
-        <v>13.77</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I158">
-        <v>26.72</v>
+        <v>16.73</v>
+      </c>
+      <c r="J158">
+        <v>11.88</v>
+      </c>
+      <c r="K158">
+        <v>23.72</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -6873,19 +7825,25 @@
         </is>
       </c>
       <c r="G159">
-        <v>18.2</v>
+        <v>43.29146447</v>
       </c>
       <c r="H159">
-        <v>11.28</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I159">
-        <v>28.53</v>
+        <v>16.69</v>
+      </c>
+      <c r="J159">
+        <v>10.55</v>
+      </c>
+      <c r="K159">
+        <v>24.54</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -6914,19 +7872,25 @@
         </is>
       </c>
       <c r="G160">
-        <v>18.19</v>
+        <v>43.29146447</v>
       </c>
       <c r="H160">
-        <v>11.28</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I160">
-        <v>27.67</v>
+        <v>17.24</v>
+      </c>
+      <c r="J160">
+        <v>10.94</v>
+      </c>
+      <c r="K160">
+        <v>24.79</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -6955,19 +7919,25 @@
         </is>
       </c>
       <c r="G161">
-        <v>16.54</v>
+        <v>43.29146447</v>
       </c>
       <c r="H161">
-        <v>12.91</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I161">
-        <v>20.76</v>
+        <v>16.61</v>
+      </c>
+      <c r="J161">
+        <v>12.7</v>
+      </c>
+      <c r="K161">
+        <v>21.49</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -6996,19 +7966,25 @@
         </is>
       </c>
       <c r="G162">
-        <v>13.43</v>
+        <v>43.29146447</v>
       </c>
       <c r="H162">
-        <v>11.75</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I162">
-        <v>17.93</v>
+        <v>12.48</v>
+      </c>
+      <c r="J162">
+        <v>11.54</v>
+      </c>
+      <c r="K162">
+        <v>14.67</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -7037,19 +8013,25 @@
         </is>
       </c>
       <c r="G163">
-        <v>13.91</v>
+        <v>43.29146447</v>
       </c>
       <c r="H163">
-        <v>11.49</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I163">
-        <v>20.93</v>
+        <v>12.42</v>
+      </c>
+      <c r="J163">
+        <v>10.12</v>
+      </c>
+      <c r="K163">
+        <v>15.27</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -7078,19 +8060,25 @@
         </is>
       </c>
       <c r="G164">
-        <v>15.94</v>
+        <v>43.29146447</v>
       </c>
       <c r="H164">
-        <v>9.56</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I164">
-        <v>26.77</v>
+        <v>13.28</v>
+      </c>
+      <c r="J164">
+        <v>6.9</v>
+      </c>
+      <c r="K164">
+        <v>20.72</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -7119,19 +8107,25 @@
         </is>
       </c>
       <c r="G165">
-        <v>18.28</v>
+        <v>43.29146447</v>
       </c>
       <c r="H165">
-        <v>10.68</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I165">
-        <v>30.46</v>
+        <v>16.51</v>
+      </c>
+      <c r="J165">
+        <v>9.74</v>
+      </c>
+      <c r="K165">
+        <v>26.12</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -7160,19 +8154,25 @@
         </is>
       </c>
       <c r="G166">
-        <v>17.37</v>
+        <v>43.29146447</v>
       </c>
       <c r="H166">
-        <v>11.75</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I166">
-        <v>25.95</v>
+        <v>16.64</v>
+      </c>
+      <c r="J166">
+        <v>11.37</v>
+      </c>
+      <c r="K166">
+        <v>23.29</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -7201,19 +8201,25 @@
         </is>
       </c>
       <c r="G167">
-        <v>16.33</v>
+        <v>43.29146447</v>
       </c>
       <c r="H167">
-        <v>8.359999999999999</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I167">
-        <v>27.93</v>
+        <v>15.25</v>
+      </c>
+      <c r="J167">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="K167">
+        <v>23.81</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -7242,19 +8248,25 @@
         </is>
       </c>
       <c r="G168">
-        <v>19.18</v>
+        <v>43.29146447</v>
       </c>
       <c r="H168">
-        <v>9.69</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I168">
-        <v>34.49</v>
+        <v>17.41</v>
+      </c>
+      <c r="J168">
+        <v>8.92</v>
+      </c>
+      <c r="K168">
+        <v>29.3</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -7283,19 +8295,25 @@
         </is>
       </c>
       <c r="G169">
-        <v>21.32</v>
+        <v>43.29146447</v>
       </c>
       <c r="H169">
-        <v>13.04</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I169">
-        <v>35.82</v>
+        <v>19.55</v>
+      </c>
+      <c r="J169">
+        <v>11.92</v>
+      </c>
+      <c r="K169">
+        <v>30.97</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -7324,19 +8342,25 @@
         </is>
       </c>
       <c r="G170">
-        <v>22.03</v>
+        <v>43.29146447</v>
       </c>
       <c r="H170">
-        <v>13.55</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I170">
-        <v>34.62</v>
+        <v>20.76</v>
+      </c>
+      <c r="J170">
+        <v>12.82</v>
+      </c>
+      <c r="K170">
+        <v>30.97</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -7365,19 +8389,25 @@
         </is>
       </c>
       <c r="G171">
-        <v>22.07</v>
+        <v>43.29146447</v>
       </c>
       <c r="H171">
-        <v>14.8</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I171">
-        <v>31.06</v>
+        <v>21.44</v>
+      </c>
+      <c r="J171">
+        <v>15.4</v>
+      </c>
+      <c r="K171">
+        <v>30.16</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -7406,19 +8436,25 @@
         </is>
       </c>
       <c r="G172">
-        <v>17.65</v>
+        <v>43.29146447</v>
       </c>
       <c r="H172">
-        <v>13.21</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I172">
-        <v>25.09</v>
+        <v>18.11</v>
+      </c>
+      <c r="J172">
+        <v>12.91</v>
+      </c>
+      <c r="K172">
+        <v>23.89</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -7447,19 +8483,25 @@
         </is>
       </c>
       <c r="G173">
-        <v>18.56</v>
+        <v>43.29146447</v>
       </c>
       <c r="H173">
-        <v>10.64</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I173">
-        <v>30.8</v>
+        <v>17.56</v>
+      </c>
+      <c r="J173">
+        <v>10.46</v>
+      </c>
+      <c r="K173">
+        <v>26.42</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -7488,19 +8530,25 @@
         </is>
       </c>
       <c r="G174">
-        <v>20.89</v>
+        <v>43.29146447</v>
       </c>
       <c r="H174">
-        <v>12.65</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I174">
-        <v>35.56</v>
+        <v>18.8</v>
+      </c>
+      <c r="J174">
+        <v>12.27</v>
+      </c>
+      <c r="K174">
+        <v>29.38</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -7529,19 +8577,25 @@
         </is>
       </c>
       <c r="G175">
-        <v>22.12</v>
+        <v>43.29146447</v>
       </c>
       <c r="H175">
-        <v>13.68</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I175">
-        <v>37.66</v>
+        <v>20.03</v>
+      </c>
+      <c r="J175">
+        <v>12.78</v>
+      </c>
+      <c r="K175">
+        <v>31.4</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -7570,19 +8624,25 @@
         </is>
       </c>
       <c r="G176">
-        <v>21.95</v>
+        <v>43.29146447</v>
       </c>
       <c r="H176">
-        <v>14.58</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I176">
-        <v>34.96</v>
+        <v>20.35</v>
+      </c>
+      <c r="J176">
+        <v>14.15</v>
+      </c>
+      <c r="K176">
+        <v>29</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -7611,19 +8671,25 @@
         </is>
       </c>
       <c r="G177">
-        <v>21.91</v>
+        <v>43.29146447</v>
       </c>
       <c r="H177">
-        <v>15.14</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I177">
-        <v>33.29</v>
+        <v>20.79</v>
+      </c>
+      <c r="J177">
+        <v>15.27</v>
+      </c>
+      <c r="K177">
+        <v>30.24</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -7652,19 +8718,25 @@
         </is>
       </c>
       <c r="G178">
-        <v>21.44</v>
+        <v>43.29146447</v>
       </c>
       <c r="H178">
-        <v>14.15</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I178">
-        <v>36.89</v>
+        <v>19.82</v>
+      </c>
+      <c r="J178">
+        <v>14.33</v>
+      </c>
+      <c r="K178">
+        <v>28.31</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -7693,19 +8765,25 @@
         </is>
       </c>
       <c r="G179">
-        <v>20.71</v>
+        <v>43.29146447</v>
       </c>
       <c r="H179">
-        <v>13.25</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I179">
-        <v>32.94</v>
+        <v>19.4</v>
+      </c>
+      <c r="J179">
+        <v>13.17</v>
+      </c>
+      <c r="K179">
+        <v>29.3</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -7734,19 +8812,25 @@
         </is>
       </c>
       <c r="G180">
-        <v>19.25</v>
+        <v>43.29146447</v>
       </c>
       <c r="H180">
-        <v>12.44</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I180">
-        <v>32.52</v>
+        <v>18.64</v>
+      </c>
+      <c r="J180">
+        <v>12.52</v>
+      </c>
+      <c r="K180">
+        <v>26.51</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -7775,19 +8859,25 @@
         </is>
       </c>
       <c r="G181">
-        <v>13.24</v>
+        <v>43.29146447</v>
       </c>
       <c r="H181">
-        <v>10.21</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I181">
-        <v>16.56</v>
+        <v>13</v>
+      </c>
+      <c r="J181">
+        <v>10.51</v>
+      </c>
+      <c r="K181">
+        <v>14.71</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -7816,19 +8906,25 @@
         </is>
       </c>
       <c r="G182">
-        <v>14.18</v>
+        <v>43.29146447</v>
       </c>
       <c r="H182">
-        <v>11.54</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I182">
-        <v>17.72</v>
+        <v>13.54</v>
+      </c>
+      <c r="J182">
+        <v>10.77</v>
+      </c>
+      <c r="K182">
+        <v>16.39</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -7857,19 +8953,25 @@
         </is>
       </c>
       <c r="G183">
-        <v>15.48</v>
+        <v>43.29146447</v>
       </c>
       <c r="H183">
-        <v>9.91</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I183">
-        <v>25.52</v>
+        <v>13.34</v>
+      </c>
+      <c r="J183">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="K183">
+        <v>19.9</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -7898,19 +9000,25 @@
         </is>
       </c>
       <c r="G184">
-        <v>16.4</v>
+        <v>43.29146447</v>
       </c>
       <c r="H184">
-        <v>10.81</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I184">
-        <v>26.34</v>
+        <v>14.83</v>
+      </c>
+      <c r="J184">
+        <v>10.21</v>
+      </c>
+      <c r="K184">
+        <v>21.28</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -7939,19 +9047,25 @@
         </is>
       </c>
       <c r="G185">
-        <v>15.73</v>
+        <v>43.29146447</v>
       </c>
       <c r="H185">
-        <v>12.74</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I185">
-        <v>20.33</v>
+        <v>14.05</v>
+      </c>
+      <c r="J185">
+        <v>11.71</v>
+      </c>
+      <c r="K185">
+        <v>17.5</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -7980,19 +9094,25 @@
         </is>
       </c>
       <c r="G186">
-        <v>12.91</v>
+        <v>43.29146447</v>
       </c>
       <c r="H186">
-        <v>8.75</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I186">
-        <v>18.96</v>
+        <v>12.63</v>
+      </c>
+      <c r="J186">
+        <v>8.66</v>
+      </c>
+      <c r="K186">
+        <v>17.24</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -8021,19 +9141,25 @@
         </is>
       </c>
       <c r="G187">
-        <v>14.09</v>
+        <v>43.29146447</v>
       </c>
       <c r="H187">
-        <v>11.02</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I187">
-        <v>19.65</v>
+        <v>13.4</v>
+      </c>
+      <c r="J187">
+        <v>9.69</v>
+      </c>
+      <c r="K187">
+        <v>18.74</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -8062,19 +9188,25 @@
         </is>
       </c>
       <c r="G188">
-        <v>16.01</v>
+        <v>43.29146447</v>
       </c>
       <c r="H188">
-        <v>11.45</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I188">
-        <v>27.97</v>
+        <v>14.49</v>
+      </c>
+      <c r="J188">
+        <v>9.390000000000001</v>
+      </c>
+      <c r="K188">
+        <v>21.23</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -8103,19 +9235,25 @@
         </is>
       </c>
       <c r="G189">
-        <v>16.28</v>
+        <v>43.29146447</v>
       </c>
       <c r="H189">
-        <v>10.94</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I189">
-        <v>26.12</v>
+        <v>14.61</v>
+      </c>
+      <c r="J189">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="K189">
+        <v>22.22</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -8144,19 +9282,25 @@
         </is>
       </c>
       <c r="G190">
-        <v>15.3</v>
+        <v>43.29146447</v>
       </c>
       <c r="H190">
-        <v>9.74</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I190">
-        <v>25.35</v>
+        <v>14.01</v>
+      </c>
+      <c r="J190">
+        <v>9.01</v>
+      </c>
+      <c r="K190">
+        <v>21.1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -8185,13 +9329,19 @@
         </is>
       </c>
       <c r="G191">
-        <v>10.65</v>
+        <v>43.29146447</v>
       </c>
       <c r="H191">
-        <v>7.08</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I191">
-        <v>27.24</v>
+        <v>9.01</v>
+      </c>
+      <c r="J191">
+        <v>6.35</v>
+      </c>
+      <c r="K191">
+        <v>17.46</v>
       </c>
     </row>
   </sheetData>

--- a/2024 Logger Sites/Air/daily_air_master.xlsx
+++ b/2024 Logger Sites/Air/daily_air_master.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K191"/>
+  <dimension ref="A1:L191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -413,11 +413,16 @@
           <t>max_temp</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -446,25 +451,30 @@
         </is>
       </c>
       <c r="G2">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H2">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I2">
-        <v>23.1</v>
+        <v>22.28</v>
       </c>
       <c r="J2">
-        <v>14.33</v>
+        <v>14.37</v>
       </c>
       <c r="K2">
-        <v>41.48</v>
+        <v>28.53</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -493,25 +503,30 @@
         </is>
       </c>
       <c r="G3">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H3">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I3">
-        <v>18.68</v>
+        <v>18.92</v>
       </c>
       <c r="J3">
         <v>10.51</v>
       </c>
       <c r="K3">
-        <v>29.08</v>
+        <v>29.34</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -540,25 +555,30 @@
         </is>
       </c>
       <c r="G4">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H4">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>20.55</v>
       </c>
       <c r="J4">
-        <v>12.18</v>
+        <v>12.57</v>
       </c>
       <c r="K4">
-        <v>30.89</v>
+        <v>30.37</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -587,25 +607,30 @@
         </is>
       </c>
       <c r="G5">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H5">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I5">
-        <v>20.31</v>
+        <v>20.6</v>
       </c>
       <c r="J5">
-        <v>12.18</v>
+        <v>12.48</v>
       </c>
       <c r="K5">
-        <v>30.16</v>
+        <v>30.11</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -634,25 +659,30 @@
         </is>
       </c>
       <c r="G6">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H6">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I6">
-        <v>18.03</v>
+        <v>18.6</v>
       </c>
       <c r="J6">
-        <v>12.48</v>
+        <v>10.94</v>
       </c>
       <c r="K6">
-        <v>25.99</v>
+        <v>26.51</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -681,25 +711,30 @@
         </is>
       </c>
       <c r="G7">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H7">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I7">
-        <v>18.25</v>
+        <v>18.68</v>
       </c>
       <c r="J7">
-        <v>10.38</v>
+        <v>10.29</v>
       </c>
       <c r="K7">
-        <v>28.74</v>
+        <v>29.13</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -728,25 +763,30 @@
         </is>
       </c>
       <c r="G8">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H8">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I8">
-        <v>20.77</v>
+        <v>21.14</v>
       </c>
       <c r="J8">
-        <v>11.92</v>
+        <v>12.01</v>
       </c>
       <c r="K8">
-        <v>31.53</v>
+        <v>32</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -775,25 +815,30 @@
         </is>
       </c>
       <c r="G9">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H9">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I9">
-        <v>17.54</v>
+        <v>18.33</v>
       </c>
       <c r="J9">
-        <v>14.37</v>
+        <v>13.81</v>
       </c>
       <c r="K9">
-        <v>21.88</v>
+        <v>23.25</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -822,25 +867,30 @@
         </is>
       </c>
       <c r="G10">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H10">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I10">
-        <v>17.43</v>
+        <v>17.81</v>
       </c>
       <c r="J10">
-        <v>13.12</v>
+        <v>13.47</v>
       </c>
       <c r="K10">
-        <v>25.65</v>
+        <v>25.05</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -869,25 +919,30 @@
         </is>
       </c>
       <c r="G11">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H11">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I11">
-        <v>18.14</v>
+        <v>18.26</v>
       </c>
       <c r="J11">
-        <v>10.34</v>
+        <v>10.21</v>
       </c>
       <c r="K11">
-        <v>28.61</v>
+        <v>27.93</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -916,25 +971,30 @@
         </is>
       </c>
       <c r="G12">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H12">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I12">
-        <v>18.66</v>
+        <v>18.42</v>
       </c>
       <c r="J12">
-        <v>11.71</v>
+        <v>11.79</v>
       </c>
       <c r="K12">
-        <v>26.34</v>
+        <v>26.3</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -963,25 +1023,30 @@
         </is>
       </c>
       <c r="G13">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H13">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I13">
-        <v>19.5</v>
+        <v>19.65</v>
       </c>
       <c r="J13">
-        <v>12.31</v>
+        <v>12.44</v>
       </c>
       <c r="K13">
-        <v>28.7</v>
+        <v>28.1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1010,25 +1075,30 @@
         </is>
       </c>
       <c r="G14">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H14">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I14">
-        <v>19.66</v>
+        <v>19.54</v>
       </c>
       <c r="J14">
-        <v>12.35</v>
+        <v>12.1</v>
       </c>
       <c r="K14">
-        <v>29.3</v>
+        <v>28.87</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1057,25 +1127,30 @@
         </is>
       </c>
       <c r="G15">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H15">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I15">
-        <v>19.39</v>
+        <v>19.35</v>
       </c>
       <c r="J15">
-        <v>11.84</v>
+        <v>11.37</v>
       </c>
       <c r="K15">
-        <v>29.17</v>
+        <v>29.38</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1104,25 +1179,30 @@
         </is>
       </c>
       <c r="G16">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H16">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I16">
-        <v>19.48</v>
+        <v>19.58</v>
       </c>
       <c r="J16">
-        <v>10.89</v>
+        <v>10.04</v>
       </c>
       <c r="K16">
-        <v>30.59</v>
+        <v>30.71</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1151,25 +1231,30 @@
         </is>
       </c>
       <c r="G17">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H17">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I17">
-        <v>21.85</v>
+        <v>22.16</v>
       </c>
       <c r="J17">
-        <v>12.31</v>
+        <v>12.1</v>
       </c>
       <c r="K17">
-        <v>35.3</v>
+        <v>33.97</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1198,25 +1283,30 @@
         </is>
       </c>
       <c r="G18">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H18">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I18">
-        <v>24.16</v>
+        <v>24.12</v>
       </c>
       <c r="J18">
-        <v>14.37</v>
+        <v>14.15</v>
       </c>
       <c r="K18">
-        <v>37.28</v>
+        <v>36.72</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1245,25 +1335,30 @@
         </is>
       </c>
       <c r="G19">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H19">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I19">
-        <v>24.99</v>
+        <v>24.65</v>
       </c>
       <c r="J19">
-        <v>16</v>
+        <v>15.31</v>
       </c>
       <c r="K19">
-        <v>38.39</v>
+        <v>37.75</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1292,25 +1387,30 @@
         </is>
       </c>
       <c r="G20">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H20">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I20">
-        <v>24.25</v>
+        <v>23.68</v>
       </c>
       <c r="J20">
-        <v>14.54</v>
+        <v>13.47</v>
       </c>
       <c r="K20">
-        <v>37.84</v>
+        <v>36.55</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1339,25 +1439,30 @@
         </is>
       </c>
       <c r="G21">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H21">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I21">
-        <v>24.62</v>
+        <v>24.46</v>
       </c>
       <c r="J21">
-        <v>15.27</v>
+        <v>14.8</v>
       </c>
       <c r="K21">
-        <v>38.09</v>
+        <v>36.93</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1386,25 +1491,30 @@
         </is>
       </c>
       <c r="G22">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H22">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I22">
-        <v>25.37</v>
+        <v>25.17</v>
       </c>
       <c r="J22">
         <v>17.16</v>
       </c>
       <c r="K22">
-        <v>37.02</v>
+        <v>35.18</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1433,25 +1543,30 @@
         </is>
       </c>
       <c r="G23">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H23">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I23">
-        <v>24.31</v>
+        <v>24.33</v>
       </c>
       <c r="J23">
-        <v>16.21</v>
+        <v>16.47</v>
       </c>
       <c r="K23">
-        <v>35.69</v>
+        <v>33.63</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1480,25 +1595,30 @@
         </is>
       </c>
       <c r="G24">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H24">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I24">
-        <v>22.52</v>
+        <v>22.79</v>
       </c>
       <c r="J24">
-        <v>14.15</v>
+        <v>14.5</v>
       </c>
       <c r="K24">
-        <v>33.16</v>
+        <v>31.7</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1527,25 +1647,30 @@
         </is>
       </c>
       <c r="G25">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H25">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I25">
-        <v>22.67</v>
+        <v>22.95</v>
       </c>
       <c r="J25">
-        <v>14.28</v>
+        <v>14.54</v>
       </c>
       <c r="K25">
-        <v>32.99</v>
+        <v>32.09</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1574,25 +1699,30 @@
         </is>
       </c>
       <c r="G26">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H26">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I26">
-        <v>23.79</v>
+        <v>23.83</v>
       </c>
       <c r="J26">
-        <v>15.1</v>
+        <v>15.23</v>
       </c>
       <c r="K26">
-        <v>35.39</v>
+        <v>33.76</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1621,25 +1751,30 @@
         </is>
       </c>
       <c r="G27">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H27">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I27">
-        <v>23.91</v>
+        <v>24.32</v>
       </c>
       <c r="J27">
-        <v>16.26</v>
+        <v>16.73</v>
       </c>
       <c r="K27">
-        <v>34.62</v>
+        <v>33.85</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1668,25 +1803,30 @@
         </is>
       </c>
       <c r="G28">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H28">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I28">
-        <v>24.13</v>
+        <v>24.19</v>
       </c>
       <c r="J28">
-        <v>16.04</v>
+        <v>16.26</v>
       </c>
       <c r="K28">
-        <v>34.7</v>
+        <v>34.23</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1715,25 +1855,30 @@
         </is>
       </c>
       <c r="G29">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H29">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I29">
-        <v>23.41</v>
+        <v>21.84</v>
       </c>
       <c r="J29">
-        <v>16.47</v>
+        <v>16.08</v>
       </c>
       <c r="K29">
-        <v>33.89</v>
+        <v>34.23</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1762,25 +1907,30 @@
         </is>
       </c>
       <c r="G30">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H30">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I30">
-        <v>22.39</v>
+        <v>22.7</v>
       </c>
       <c r="J30">
-        <v>15.23</v>
+        <v>15.48</v>
       </c>
       <c r="K30">
-        <v>31.27</v>
+        <v>31.36</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1809,25 +1959,30 @@
         </is>
       </c>
       <c r="G31">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H31">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I31">
-        <v>22.48</v>
+        <v>22.36</v>
       </c>
       <c r="J31">
-        <v>14.07</v>
+        <v>14.03</v>
       </c>
       <c r="K31">
-        <v>33.63</v>
+        <v>31.66</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1856,25 +2011,30 @@
         </is>
       </c>
       <c r="G32">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H32">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I32">
-        <v>22.49</v>
+        <v>22.16</v>
       </c>
       <c r="J32">
-        <v>14.58</v>
+        <v>14.67</v>
       </c>
       <c r="K32">
-        <v>33.42</v>
+        <v>31.1</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1903,25 +2063,30 @@
         </is>
       </c>
       <c r="G33">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H33">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I33">
-        <v>22.4</v>
+        <v>22.33</v>
       </c>
       <c r="J33">
-        <v>14.75</v>
+        <v>14.97</v>
       </c>
       <c r="K33">
-        <v>32.47</v>
+        <v>30.07</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1950,25 +2115,30 @@
         </is>
       </c>
       <c r="G34">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H34">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I34">
-        <v>20.21</v>
+        <v>21.38</v>
       </c>
       <c r="J34">
-        <v>17.24</v>
+        <v>17.89</v>
       </c>
       <c r="K34">
-        <v>24.62</v>
+        <v>25.87</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1997,25 +2167,30 @@
         </is>
       </c>
       <c r="G35">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H35">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I35">
-        <v>19.95</v>
+        <v>20.19</v>
       </c>
       <c r="J35">
-        <v>16.08</v>
+        <v>16.64</v>
       </c>
       <c r="K35">
-        <v>29.13</v>
+        <v>26.04</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2044,25 +2219,30 @@
         </is>
       </c>
       <c r="G36">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H36">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I36">
-        <v>19.91</v>
+        <v>20.06</v>
       </c>
       <c r="J36">
-        <v>12.35</v>
+        <v>12.57</v>
       </c>
       <c r="K36">
-        <v>30.5</v>
+        <v>28.44</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2091,25 +2271,30 @@
         </is>
       </c>
       <c r="G37">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H37">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I37">
-        <v>20.8</v>
+        <v>20.35</v>
       </c>
       <c r="J37">
-        <v>14.07</v>
+        <v>14.58</v>
       </c>
       <c r="K37">
-        <v>31.57</v>
+        <v>27.97</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2138,25 +2323,30 @@
         </is>
       </c>
       <c r="G38">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H38">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I38">
-        <v>18.99</v>
+        <v>19.09</v>
       </c>
       <c r="J38">
-        <v>14.67</v>
+        <v>13.9</v>
       </c>
       <c r="K38">
-        <v>27.41</v>
+        <v>25.01</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2185,25 +2375,30 @@
         </is>
       </c>
       <c r="G39">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H39">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I39">
-        <v>18.27</v>
+        <v>17.98</v>
       </c>
       <c r="J39">
-        <v>11.49</v>
+        <v>11.75</v>
       </c>
       <c r="K39">
-        <v>28.35</v>
+        <v>24.97</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2232,25 +2427,30 @@
         </is>
       </c>
       <c r="G40">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H40">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I40">
-        <v>18.96</v>
+        <v>18.43</v>
       </c>
       <c r="J40">
-        <v>12.01</v>
+        <v>12.14</v>
       </c>
       <c r="K40">
-        <v>29.68</v>
+        <v>25.95</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2279,25 +2479,30 @@
         </is>
       </c>
       <c r="G41">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H41">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I41">
-        <v>19.08</v>
+        <v>18.85</v>
       </c>
       <c r="J41">
-        <v>12.05</v>
+        <v>11.71</v>
       </c>
       <c r="K41">
-        <v>27.67</v>
+        <v>27.63</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2326,25 +2531,30 @@
         </is>
       </c>
       <c r="G42">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H42">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I42">
-        <v>19.33</v>
+        <v>19.1</v>
       </c>
       <c r="J42">
-        <v>12.95</v>
+        <v>12.78</v>
       </c>
       <c r="K42">
-        <v>27.02</v>
+        <v>26.21</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2373,25 +2583,30 @@
         </is>
       </c>
       <c r="G43">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H43">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I43">
-        <v>22.18</v>
+        <v>21.85</v>
       </c>
       <c r="J43">
-        <v>17.37</v>
+        <v>16.51</v>
       </c>
       <c r="K43">
-        <v>30.16</v>
+        <v>28.4</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2420,25 +2635,30 @@
         </is>
       </c>
       <c r="G44">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H44">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I44">
-        <v>22.68</v>
+        <v>22.19</v>
       </c>
       <c r="J44">
-        <v>15.14</v>
+        <v>14.67</v>
       </c>
       <c r="K44">
-        <v>33.29</v>
+        <v>31.1</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2467,25 +2687,30 @@
         </is>
       </c>
       <c r="G45">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H45">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I45">
-        <v>25.11</v>
+        <v>24.48</v>
       </c>
       <c r="J45">
-        <v>17.72</v>
+        <v>17.2</v>
       </c>
       <c r="K45">
-        <v>34.79</v>
+        <v>32.99</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2514,25 +2739,30 @@
         </is>
       </c>
       <c r="G46">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H46">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I46">
-        <v>24.89</v>
+        <v>24.65</v>
       </c>
       <c r="J46">
-        <v>17.59</v>
+        <v>18.1</v>
       </c>
       <c r="K46">
-        <v>33.59</v>
+        <v>31.96</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2561,25 +2791,30 @@
         </is>
       </c>
       <c r="G47">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H47">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I47">
-        <v>20.91</v>
+        <v>20.99</v>
       </c>
       <c r="J47">
-        <v>17.93</v>
+        <v>19.04</v>
       </c>
       <c r="K47">
-        <v>24.54</v>
+        <v>23.42</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2608,25 +2843,30 @@
         </is>
       </c>
       <c r="G48">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H48">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I48">
-        <v>23.77</v>
+        <v>23.07</v>
       </c>
       <c r="J48">
-        <v>16.94</v>
+        <v>16</v>
       </c>
       <c r="K48">
-        <v>34.06</v>
+        <v>31.92</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2655,25 +2895,30 @@
         </is>
       </c>
       <c r="G49">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H49">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I49">
-        <v>22.63</v>
+        <v>22.55</v>
       </c>
       <c r="J49">
         <v>16.13</v>
       </c>
       <c r="K49">
-        <v>33.12</v>
+        <v>29.94</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2702,25 +2947,30 @@
         </is>
       </c>
       <c r="G50">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H50">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I50">
-        <v>21.3</v>
+        <v>20.92</v>
       </c>
       <c r="J50">
-        <v>13.94</v>
+        <v>14.37</v>
       </c>
       <c r="K50">
-        <v>31.57</v>
+        <v>28.53</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2749,25 +2999,30 @@
         </is>
       </c>
       <c r="G51">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H51">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I51">
-        <v>19.91</v>
+        <v>20.24</v>
       </c>
       <c r="J51">
-        <v>13.64</v>
+        <v>12.4</v>
       </c>
       <c r="K51">
-        <v>27.41</v>
+        <v>29.94</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2796,25 +3051,30 @@
         </is>
       </c>
       <c r="G52">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H52">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I52">
-        <v>21.4</v>
+        <v>20.9</v>
       </c>
       <c r="J52">
-        <v>14.58</v>
+        <v>14.8</v>
       </c>
       <c r="K52">
-        <v>33.03</v>
+        <v>29.04</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2843,25 +3103,30 @@
         </is>
       </c>
       <c r="G53">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H53">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I53">
-        <v>21.33</v>
+        <v>21.05</v>
       </c>
       <c r="J53">
-        <v>14.63</v>
+        <v>14.71</v>
       </c>
       <c r="K53">
-        <v>31.31</v>
+        <v>28.1</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2890,25 +3155,30 @@
         </is>
       </c>
       <c r="G54">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H54">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I54">
-        <v>21.28</v>
+        <v>20.75</v>
       </c>
       <c r="J54">
-        <v>14.15</v>
+        <v>14.41</v>
       </c>
       <c r="K54">
-        <v>32.34</v>
+        <v>28.23</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2937,25 +3207,30 @@
         </is>
       </c>
       <c r="G55">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H55">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I55">
-        <v>21.26</v>
+        <v>20.61</v>
       </c>
       <c r="J55">
-        <v>14.11</v>
+        <v>14.03</v>
       </c>
       <c r="K55">
-        <v>32.22</v>
+        <v>28.23</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2984,25 +3259,30 @@
         </is>
       </c>
       <c r="G56">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H56">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I56">
-        <v>18.39</v>
+        <v>18.56</v>
       </c>
       <c r="J56">
-        <v>13.68</v>
+        <v>13.34</v>
       </c>
       <c r="K56">
-        <v>25.69</v>
+        <v>24.32</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3031,25 +3311,30 @@
         </is>
       </c>
       <c r="G57">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H57">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I57">
-        <v>17.48</v>
+        <v>17.14</v>
       </c>
       <c r="J57">
         <v>9.949999999999999</v>
       </c>
       <c r="K57">
-        <v>27.58</v>
+        <v>24.49</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3078,25 +3363,30 @@
         </is>
       </c>
       <c r="G58">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H58">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I58">
-        <v>18.86</v>
+        <v>18.48</v>
       </c>
       <c r="J58">
-        <v>11.75</v>
+        <v>11.45</v>
       </c>
       <c r="K58">
-        <v>28.05</v>
+        <v>25.65</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3125,25 +3415,30 @@
         </is>
       </c>
       <c r="G59">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H59">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I59">
-        <v>19.84</v>
+        <v>19.62</v>
       </c>
       <c r="J59">
-        <v>15.83</v>
+        <v>16</v>
       </c>
       <c r="K59">
-        <v>26.64</v>
+        <v>24.58</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3172,25 +3467,30 @@
         </is>
       </c>
       <c r="G60">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H60">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I60">
-        <v>19.28</v>
+        <v>18.87</v>
       </c>
       <c r="J60">
-        <v>12.14</v>
+        <v>12.05</v>
       </c>
       <c r="K60">
-        <v>28.48</v>
+        <v>26.51</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3219,25 +3519,30 @@
         </is>
       </c>
       <c r="G61">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H61">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I61">
-        <v>17.54</v>
+        <v>17</v>
       </c>
       <c r="J61">
-        <v>13.81</v>
+        <v>14.03</v>
       </c>
       <c r="K61">
-        <v>27.71</v>
+        <v>25.57</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3266,25 +3571,30 @@
         </is>
       </c>
       <c r="G62">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H62">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I62">
-        <v>17.69</v>
+        <v>15.1</v>
       </c>
       <c r="J62">
-        <v>13.47</v>
+        <v>11.49</v>
       </c>
       <c r="K62">
-        <v>26.38</v>
+        <v>19.52</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3313,25 +3623,30 @@
         </is>
       </c>
       <c r="G63">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H63">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I63">
-        <v>18.59</v>
+        <v>16.73</v>
       </c>
       <c r="J63">
-        <v>13.77</v>
+        <v>11.88</v>
       </c>
       <c r="K63">
-        <v>26.72</v>
+        <v>23.72</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3360,25 +3675,30 @@
         </is>
       </c>
       <c r="G64">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H64">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I64">
-        <v>18.2</v>
+        <v>16.69</v>
       </c>
       <c r="J64">
-        <v>11.28</v>
+        <v>10.55</v>
       </c>
       <c r="K64">
-        <v>28.53</v>
+        <v>24.54</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3407,25 +3727,30 @@
         </is>
       </c>
       <c r="G65">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H65">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I65">
-        <v>18.19</v>
+        <v>17.24</v>
       </c>
       <c r="J65">
-        <v>11.28</v>
+        <v>10.94</v>
       </c>
       <c r="K65">
-        <v>27.67</v>
+        <v>24.79</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3454,25 +3779,30 @@
         </is>
       </c>
       <c r="G66">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H66">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I66">
-        <v>16.54</v>
+        <v>16.61</v>
       </c>
       <c r="J66">
-        <v>12.91</v>
+        <v>12.7</v>
       </c>
       <c r="K66">
-        <v>20.76</v>
+        <v>21.49</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3501,25 +3831,30 @@
         </is>
       </c>
       <c r="G67">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H67">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I67">
-        <v>13.43</v>
+        <v>12.48</v>
       </c>
       <c r="J67">
-        <v>11.75</v>
+        <v>11.54</v>
       </c>
       <c r="K67">
-        <v>17.93</v>
+        <v>14.67</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3548,25 +3883,30 @@
         </is>
       </c>
       <c r="G68">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H68">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I68">
-        <v>13.91</v>
+        <v>12.42</v>
       </c>
       <c r="J68">
-        <v>11.49</v>
+        <v>10.12</v>
       </c>
       <c r="K68">
-        <v>20.93</v>
+        <v>15.27</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3595,25 +3935,30 @@
         </is>
       </c>
       <c r="G69">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H69">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I69">
-        <v>15.94</v>
+        <v>13.28</v>
       </c>
       <c r="J69">
-        <v>9.56</v>
+        <v>6.9</v>
       </c>
       <c r="K69">
-        <v>26.77</v>
+        <v>20.72</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3642,25 +3987,30 @@
         </is>
       </c>
       <c r="G70">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H70">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I70">
-        <v>18.28</v>
+        <v>16.51</v>
       </c>
       <c r="J70">
-        <v>10.68</v>
+        <v>9.74</v>
       </c>
       <c r="K70">
-        <v>30.46</v>
+        <v>26.12</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3689,25 +4039,30 @@
         </is>
       </c>
       <c r="G71">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H71">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I71">
-        <v>17.37</v>
+        <v>16.64</v>
       </c>
       <c r="J71">
-        <v>11.75</v>
+        <v>11.37</v>
       </c>
       <c r="K71">
-        <v>25.95</v>
+        <v>23.29</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3736,25 +4091,30 @@
         </is>
       </c>
       <c r="G72">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H72">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I72">
-        <v>16.33</v>
+        <v>15.25</v>
       </c>
       <c r="J72">
-        <v>8.359999999999999</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="K72">
-        <v>27.93</v>
+        <v>23.81</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3783,25 +4143,30 @@
         </is>
       </c>
       <c r="G73">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H73">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I73">
-        <v>19.18</v>
+        <v>17.41</v>
       </c>
       <c r="J73">
-        <v>9.69</v>
+        <v>8.92</v>
       </c>
       <c r="K73">
-        <v>34.49</v>
+        <v>29.3</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3830,25 +4195,30 @@
         </is>
       </c>
       <c r="G74">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H74">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I74">
-        <v>21.32</v>
+        <v>19.55</v>
       </c>
       <c r="J74">
-        <v>13.04</v>
+        <v>11.92</v>
       </c>
       <c r="K74">
-        <v>35.82</v>
+        <v>30.97</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3877,25 +4247,30 @@
         </is>
       </c>
       <c r="G75">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H75">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I75">
-        <v>22.03</v>
+        <v>20.76</v>
       </c>
       <c r="J75">
-        <v>13.55</v>
+        <v>12.82</v>
       </c>
       <c r="K75">
-        <v>34.62</v>
+        <v>30.97</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3924,25 +4299,30 @@
         </is>
       </c>
       <c r="G76">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H76">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I76">
-        <v>22.07</v>
+        <v>21.44</v>
       </c>
       <c r="J76">
-        <v>14.8</v>
+        <v>15.4</v>
       </c>
       <c r="K76">
-        <v>31.06</v>
+        <v>30.16</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3971,25 +4351,30 @@
         </is>
       </c>
       <c r="G77">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H77">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I77">
-        <v>17.65</v>
+        <v>18.11</v>
       </c>
       <c r="J77">
-        <v>13.21</v>
+        <v>12.91</v>
       </c>
       <c r="K77">
-        <v>25.09</v>
+        <v>23.89</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4018,25 +4403,30 @@
         </is>
       </c>
       <c r="G78">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H78">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I78">
-        <v>18.56</v>
+        <v>17.56</v>
       </c>
       <c r="J78">
-        <v>10.64</v>
+        <v>10.46</v>
       </c>
       <c r="K78">
-        <v>30.8</v>
+        <v>26.42</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4065,25 +4455,30 @@
         </is>
       </c>
       <c r="G79">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H79">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I79">
-        <v>20.89</v>
+        <v>18.8</v>
       </c>
       <c r="J79">
-        <v>12.65</v>
+        <v>12.27</v>
       </c>
       <c r="K79">
-        <v>35.56</v>
+        <v>29.38</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4112,25 +4507,30 @@
         </is>
       </c>
       <c r="G80">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H80">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I80">
-        <v>22.12</v>
+        <v>20.03</v>
       </c>
       <c r="J80">
-        <v>13.68</v>
+        <v>12.78</v>
       </c>
       <c r="K80">
-        <v>37.66</v>
+        <v>31.4</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4159,25 +4559,30 @@
         </is>
       </c>
       <c r="G81">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H81">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I81">
-        <v>21.95</v>
+        <v>20.35</v>
       </c>
       <c r="J81">
-        <v>14.58</v>
+        <v>14.15</v>
       </c>
       <c r="K81">
-        <v>34.96</v>
+        <v>29</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4206,25 +4611,30 @@
         </is>
       </c>
       <c r="G82">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H82">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I82">
-        <v>21.91</v>
+        <v>20.79</v>
       </c>
       <c r="J82">
-        <v>15.14</v>
+        <v>15.27</v>
       </c>
       <c r="K82">
-        <v>33.29</v>
+        <v>30.24</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4253,25 +4663,30 @@
         </is>
       </c>
       <c r="G83">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H83">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I83">
-        <v>21.44</v>
+        <v>19.82</v>
       </c>
       <c r="J83">
-        <v>14.15</v>
+        <v>14.33</v>
       </c>
       <c r="K83">
-        <v>36.89</v>
+        <v>28.31</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4300,25 +4715,30 @@
         </is>
       </c>
       <c r="G84">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H84">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I84">
-        <v>20.71</v>
+        <v>19.4</v>
       </c>
       <c r="J84">
-        <v>13.25</v>
+        <v>13.17</v>
       </c>
       <c r="K84">
-        <v>32.94</v>
+        <v>29.3</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4347,25 +4767,30 @@
         </is>
       </c>
       <c r="G85">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H85">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I85">
-        <v>19.25</v>
+        <v>18.64</v>
       </c>
       <c r="J85">
-        <v>12.44</v>
+        <v>12.52</v>
       </c>
       <c r="K85">
-        <v>32.52</v>
+        <v>26.51</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4394,25 +4819,30 @@
         </is>
       </c>
       <c r="G86">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H86">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I86">
-        <v>13.24</v>
+        <v>13</v>
       </c>
       <c r="J86">
-        <v>10.21</v>
+        <v>10.51</v>
       </c>
       <c r="K86">
-        <v>16.56</v>
+        <v>14.71</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4441,25 +4871,30 @@
         </is>
       </c>
       <c r="G87">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H87">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I87">
-        <v>14.18</v>
+        <v>13.54</v>
       </c>
       <c r="J87">
-        <v>11.54</v>
+        <v>10.77</v>
       </c>
       <c r="K87">
-        <v>17.72</v>
+        <v>16.39</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4488,25 +4923,30 @@
         </is>
       </c>
       <c r="G88">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H88">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I88">
-        <v>15.48</v>
+        <v>13.34</v>
       </c>
       <c r="J88">
-        <v>9.91</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="K88">
-        <v>25.52</v>
+        <v>19.9</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4535,25 +4975,30 @@
         </is>
       </c>
       <c r="G89">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H89">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I89">
-        <v>16.4</v>
+        <v>14.83</v>
       </c>
       <c r="J89">
-        <v>10.81</v>
+        <v>10.21</v>
       </c>
       <c r="K89">
-        <v>26.34</v>
+        <v>21.28</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4582,25 +5027,30 @@
         </is>
       </c>
       <c r="G90">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H90">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I90">
-        <v>15.73</v>
+        <v>14.05</v>
       </c>
       <c r="J90">
-        <v>12.74</v>
+        <v>11.71</v>
       </c>
       <c r="K90">
-        <v>20.33</v>
+        <v>17.5</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4629,25 +5079,30 @@
         </is>
       </c>
       <c r="G91">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H91">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I91">
-        <v>12.91</v>
+        <v>12.63</v>
       </c>
       <c r="J91">
-        <v>8.75</v>
+        <v>8.66</v>
       </c>
       <c r="K91">
-        <v>18.96</v>
+        <v>17.24</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4676,25 +5131,30 @@
         </is>
       </c>
       <c r="G92">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H92">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I92">
-        <v>14.09</v>
+        <v>13.4</v>
       </c>
       <c r="J92">
-        <v>11.02</v>
+        <v>9.69</v>
       </c>
       <c r="K92">
-        <v>19.65</v>
+        <v>18.74</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4723,25 +5183,30 @@
         </is>
       </c>
       <c r="G93">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H93">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I93">
-        <v>16.01</v>
+        <v>14.49</v>
       </c>
       <c r="J93">
-        <v>11.45</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="K93">
-        <v>27.97</v>
+        <v>21.23</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4770,25 +5235,30 @@
         </is>
       </c>
       <c r="G94">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H94">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I94">
-        <v>16.28</v>
+        <v>14.61</v>
       </c>
       <c r="J94">
-        <v>10.94</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="K94">
-        <v>26.12</v>
+        <v>22.22</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4817,25 +5287,30 @@
         </is>
       </c>
       <c r="G95">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H95">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I95">
-        <v>15.3</v>
+        <v>14.01</v>
       </c>
       <c r="J95">
-        <v>9.74</v>
+        <v>9.01</v>
       </c>
       <c r="K95">
-        <v>25.35</v>
+        <v>21.1</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>21679162</t>
+          <t>21433138</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4864,25 +5339,30 @@
         </is>
       </c>
       <c r="G96">
-        <v>43.34527702</v>
+        <v>43.29146447</v>
       </c>
       <c r="H96">
-        <v>-122.73678676</v>
+        <v>-122.54551127</v>
       </c>
       <c r="I96">
-        <v>10.65</v>
+        <v>9.01</v>
       </c>
       <c r="J96">
-        <v>7.08</v>
+        <v>6.35</v>
       </c>
       <c r="K96">
-        <v>27.24</v>
+        <v>17.46</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>CopelandLower</t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4911,25 +5391,30 @@
         </is>
       </c>
       <c r="G97">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H97">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I97">
-        <v>22.28</v>
+        <v>23.1</v>
       </c>
       <c r="J97">
-        <v>14.37</v>
+        <v>14.33</v>
       </c>
       <c r="K97">
-        <v>28.53</v>
+        <v>41.48</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4958,25 +5443,30 @@
         </is>
       </c>
       <c r="G98">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H98">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I98">
-        <v>18.92</v>
+        <v>18.68</v>
       </c>
       <c r="J98">
         <v>10.51</v>
       </c>
       <c r="K98">
-        <v>29.34</v>
+        <v>29.08</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5005,25 +5495,30 @@
         </is>
       </c>
       <c r="G99">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H99">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I99">
-        <v>20.55</v>
+        <v>20</v>
       </c>
       <c r="J99">
-        <v>12.57</v>
+        <v>12.18</v>
       </c>
       <c r="K99">
-        <v>30.37</v>
+        <v>30.89</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5052,25 +5547,30 @@
         </is>
       </c>
       <c r="G100">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H100">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I100">
-        <v>20.6</v>
+        <v>20.31</v>
       </c>
       <c r="J100">
-        <v>12.48</v>
+        <v>12.18</v>
       </c>
       <c r="K100">
-        <v>30.11</v>
+        <v>30.16</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5099,25 +5599,30 @@
         </is>
       </c>
       <c r="G101">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H101">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I101">
-        <v>18.6</v>
+        <v>18.03</v>
       </c>
       <c r="J101">
-        <v>10.94</v>
+        <v>12.48</v>
       </c>
       <c r="K101">
-        <v>26.51</v>
+        <v>25.99</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5146,25 +5651,30 @@
         </is>
       </c>
       <c r="G102">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H102">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I102">
-        <v>18.68</v>
+        <v>18.25</v>
       </c>
       <c r="J102">
-        <v>10.29</v>
+        <v>10.38</v>
       </c>
       <c r="K102">
-        <v>29.13</v>
+        <v>28.74</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5193,25 +5703,30 @@
         </is>
       </c>
       <c r="G103">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H103">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I103">
-        <v>21.14</v>
+        <v>20.77</v>
       </c>
       <c r="J103">
-        <v>12.01</v>
+        <v>11.92</v>
       </c>
       <c r="K103">
-        <v>32</v>
+        <v>31.53</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5240,25 +5755,30 @@
         </is>
       </c>
       <c r="G104">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H104">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I104">
-        <v>18.33</v>
+        <v>17.54</v>
       </c>
       <c r="J104">
-        <v>13.81</v>
+        <v>14.37</v>
       </c>
       <c r="K104">
-        <v>23.25</v>
+        <v>21.88</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5287,25 +5807,30 @@
         </is>
       </c>
       <c r="G105">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H105">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I105">
-        <v>17.81</v>
+        <v>17.43</v>
       </c>
       <c r="J105">
-        <v>13.47</v>
+        <v>13.12</v>
       </c>
       <c r="K105">
-        <v>25.05</v>
+        <v>25.65</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5334,25 +5859,30 @@
         </is>
       </c>
       <c r="G106">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H106">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I106">
-        <v>18.26</v>
+        <v>18.14</v>
       </c>
       <c r="J106">
-        <v>10.21</v>
+        <v>10.34</v>
       </c>
       <c r="K106">
-        <v>27.93</v>
+        <v>28.61</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5381,25 +5911,30 @@
         </is>
       </c>
       <c r="G107">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H107">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I107">
-        <v>18.42</v>
+        <v>18.66</v>
       </c>
       <c r="J107">
-        <v>11.79</v>
+        <v>11.71</v>
       </c>
       <c r="K107">
-        <v>26.3</v>
+        <v>26.34</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5428,25 +5963,30 @@
         </is>
       </c>
       <c r="G108">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H108">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I108">
-        <v>19.65</v>
+        <v>19.5</v>
       </c>
       <c r="J108">
-        <v>12.44</v>
+        <v>12.31</v>
       </c>
       <c r="K108">
-        <v>28.1</v>
+        <v>28.7</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5475,25 +6015,30 @@
         </is>
       </c>
       <c r="G109">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H109">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I109">
-        <v>19.54</v>
+        <v>19.66</v>
       </c>
       <c r="J109">
-        <v>12.1</v>
+        <v>12.35</v>
       </c>
       <c r="K109">
-        <v>28.87</v>
+        <v>29.3</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5522,25 +6067,30 @@
         </is>
       </c>
       <c r="G110">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H110">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I110">
-        <v>19.35</v>
+        <v>19.39</v>
       </c>
       <c r="J110">
-        <v>11.37</v>
+        <v>11.84</v>
       </c>
       <c r="K110">
-        <v>29.38</v>
+        <v>29.17</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5569,25 +6119,30 @@
         </is>
       </c>
       <c r="G111">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H111">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I111">
-        <v>19.58</v>
+        <v>19.48</v>
       </c>
       <c r="J111">
-        <v>10.04</v>
+        <v>10.89</v>
       </c>
       <c r="K111">
-        <v>30.71</v>
+        <v>30.59</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5616,25 +6171,30 @@
         </is>
       </c>
       <c r="G112">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H112">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I112">
-        <v>22.16</v>
+        <v>21.85</v>
       </c>
       <c r="J112">
-        <v>12.1</v>
+        <v>12.31</v>
       </c>
       <c r="K112">
-        <v>33.97</v>
+        <v>35.3</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5663,25 +6223,30 @@
         </is>
       </c>
       <c r="G113">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H113">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I113">
-        <v>24.12</v>
+        <v>24.16</v>
       </c>
       <c r="J113">
-        <v>14.15</v>
+        <v>14.37</v>
       </c>
       <c r="K113">
-        <v>36.72</v>
+        <v>37.28</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5710,25 +6275,30 @@
         </is>
       </c>
       <c r="G114">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H114">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I114">
-        <v>24.65</v>
+        <v>24.99</v>
       </c>
       <c r="J114">
-        <v>15.31</v>
+        <v>16</v>
       </c>
       <c r="K114">
-        <v>37.75</v>
+        <v>38.39</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -5757,25 +6327,30 @@
         </is>
       </c>
       <c r="G115">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H115">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I115">
-        <v>23.68</v>
+        <v>24.25</v>
       </c>
       <c r="J115">
-        <v>13.47</v>
+        <v>14.54</v>
       </c>
       <c r="K115">
-        <v>36.55</v>
+        <v>37.84</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -5804,25 +6379,30 @@
         </is>
       </c>
       <c r="G116">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H116">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I116">
-        <v>24.46</v>
+        <v>24.62</v>
       </c>
       <c r="J116">
-        <v>14.8</v>
+        <v>15.27</v>
       </c>
       <c r="K116">
-        <v>36.93</v>
+        <v>38.09</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -5851,25 +6431,30 @@
         </is>
       </c>
       <c r="G117">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H117">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I117">
-        <v>25.17</v>
+        <v>25.37</v>
       </c>
       <c r="J117">
         <v>17.16</v>
       </c>
       <c r="K117">
-        <v>35.18</v>
+        <v>37.02</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -5898,25 +6483,30 @@
         </is>
       </c>
       <c r="G118">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H118">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I118">
-        <v>24.33</v>
+        <v>24.31</v>
       </c>
       <c r="J118">
-        <v>16.47</v>
+        <v>16.21</v>
       </c>
       <c r="K118">
-        <v>33.63</v>
+        <v>35.69</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -5945,25 +6535,30 @@
         </is>
       </c>
       <c r="G119">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H119">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I119">
-        <v>22.79</v>
+        <v>22.52</v>
       </c>
       <c r="J119">
-        <v>14.5</v>
+        <v>14.15</v>
       </c>
       <c r="K119">
-        <v>31.7</v>
+        <v>33.16</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -5992,25 +6587,30 @@
         </is>
       </c>
       <c r="G120">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H120">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I120">
-        <v>22.95</v>
+        <v>22.67</v>
       </c>
       <c r="J120">
-        <v>14.54</v>
+        <v>14.28</v>
       </c>
       <c r="K120">
-        <v>32.09</v>
+        <v>32.99</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6039,25 +6639,30 @@
         </is>
       </c>
       <c r="G121">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H121">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I121">
-        <v>23.83</v>
+        <v>23.79</v>
       </c>
       <c r="J121">
-        <v>15.23</v>
+        <v>15.1</v>
       </c>
       <c r="K121">
-        <v>33.76</v>
+        <v>35.39</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6086,25 +6691,30 @@
         </is>
       </c>
       <c r="G122">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H122">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I122">
-        <v>24.32</v>
+        <v>23.91</v>
       </c>
       <c r="J122">
-        <v>16.73</v>
+        <v>16.26</v>
       </c>
       <c r="K122">
-        <v>33.85</v>
+        <v>34.62</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6133,25 +6743,30 @@
         </is>
       </c>
       <c r="G123">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H123">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I123">
-        <v>24.19</v>
+        <v>24.13</v>
       </c>
       <c r="J123">
-        <v>16.26</v>
+        <v>16.04</v>
       </c>
       <c r="K123">
-        <v>34.23</v>
+        <v>34.7</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6180,25 +6795,30 @@
         </is>
       </c>
       <c r="G124">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H124">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I124">
-        <v>21.84</v>
+        <v>23.41</v>
       </c>
       <c r="J124">
-        <v>16.08</v>
+        <v>16.47</v>
       </c>
       <c r="K124">
-        <v>34.23</v>
+        <v>33.89</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6227,25 +6847,30 @@
         </is>
       </c>
       <c r="G125">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H125">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I125">
-        <v>22.7</v>
+        <v>22.39</v>
       </c>
       <c r="J125">
-        <v>15.48</v>
+        <v>15.23</v>
       </c>
       <c r="K125">
-        <v>31.36</v>
+        <v>31.27</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6274,25 +6899,30 @@
         </is>
       </c>
       <c r="G126">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H126">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I126">
-        <v>22.36</v>
+        <v>22.48</v>
       </c>
       <c r="J126">
-        <v>14.03</v>
+        <v>14.07</v>
       </c>
       <c r="K126">
-        <v>31.66</v>
+        <v>33.63</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6321,25 +6951,30 @@
         </is>
       </c>
       <c r="G127">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H127">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I127">
-        <v>22.16</v>
+        <v>22.49</v>
       </c>
       <c r="J127">
-        <v>14.67</v>
+        <v>14.58</v>
       </c>
       <c r="K127">
-        <v>31.1</v>
+        <v>33.42</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6368,25 +7003,30 @@
         </is>
       </c>
       <c r="G128">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H128">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I128">
-        <v>22.33</v>
+        <v>22.4</v>
       </c>
       <c r="J128">
-        <v>14.97</v>
+        <v>14.75</v>
       </c>
       <c r="K128">
-        <v>30.07</v>
+        <v>32.47</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6415,25 +7055,30 @@
         </is>
       </c>
       <c r="G129">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H129">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I129">
-        <v>21.38</v>
+        <v>20.21</v>
       </c>
       <c r="J129">
-        <v>17.89</v>
+        <v>17.24</v>
       </c>
       <c r="K129">
-        <v>25.87</v>
+        <v>24.62</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6462,25 +7107,30 @@
         </is>
       </c>
       <c r="G130">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H130">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I130">
-        <v>20.19</v>
+        <v>19.95</v>
       </c>
       <c r="J130">
-        <v>16.64</v>
+        <v>16.08</v>
       </c>
       <c r="K130">
-        <v>26.04</v>
+        <v>29.13</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6509,25 +7159,30 @@
         </is>
       </c>
       <c r="G131">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H131">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I131">
-        <v>20.06</v>
+        <v>19.91</v>
       </c>
       <c r="J131">
-        <v>12.57</v>
+        <v>12.35</v>
       </c>
       <c r="K131">
-        <v>28.44</v>
+        <v>30.5</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -6556,25 +7211,30 @@
         </is>
       </c>
       <c r="G132">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H132">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I132">
-        <v>20.35</v>
+        <v>20.8</v>
       </c>
       <c r="J132">
-        <v>14.58</v>
+        <v>14.07</v>
       </c>
       <c r="K132">
-        <v>27.97</v>
+        <v>31.57</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -6603,25 +7263,30 @@
         </is>
       </c>
       <c r="G133">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H133">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I133">
-        <v>19.09</v>
+        <v>18.99</v>
       </c>
       <c r="J133">
-        <v>13.9</v>
+        <v>14.67</v>
       </c>
       <c r="K133">
-        <v>25.01</v>
+        <v>27.41</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -6650,25 +7315,30 @@
         </is>
       </c>
       <c r="G134">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H134">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I134">
-        <v>17.98</v>
+        <v>18.27</v>
       </c>
       <c r="J134">
-        <v>11.75</v>
+        <v>11.49</v>
       </c>
       <c r="K134">
-        <v>24.97</v>
+        <v>28.35</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -6697,25 +7367,30 @@
         </is>
       </c>
       <c r="G135">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H135">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I135">
-        <v>18.43</v>
+        <v>18.96</v>
       </c>
       <c r="J135">
-        <v>12.14</v>
+        <v>12.01</v>
       </c>
       <c r="K135">
-        <v>25.95</v>
+        <v>29.68</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -6744,25 +7419,30 @@
         </is>
       </c>
       <c r="G136">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H136">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I136">
-        <v>18.85</v>
+        <v>19.08</v>
       </c>
       <c r="J136">
-        <v>11.71</v>
+        <v>12.05</v>
       </c>
       <c r="K136">
-        <v>27.63</v>
+        <v>27.67</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -6791,25 +7471,30 @@
         </is>
       </c>
       <c r="G137">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H137">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I137">
-        <v>19.1</v>
+        <v>19.33</v>
       </c>
       <c r="J137">
-        <v>12.78</v>
+        <v>12.95</v>
       </c>
       <c r="K137">
-        <v>26.21</v>
+        <v>27.02</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -6838,25 +7523,30 @@
         </is>
       </c>
       <c r="G138">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H138">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I138">
-        <v>21.85</v>
+        <v>22.18</v>
       </c>
       <c r="J138">
-        <v>16.51</v>
+        <v>17.37</v>
       </c>
       <c r="K138">
-        <v>28.4</v>
+        <v>30.16</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -6885,25 +7575,30 @@
         </is>
       </c>
       <c r="G139">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H139">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I139">
-        <v>22.19</v>
+        <v>22.68</v>
       </c>
       <c r="J139">
-        <v>14.67</v>
+        <v>15.14</v>
       </c>
       <c r="K139">
-        <v>31.1</v>
+        <v>33.29</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -6932,25 +7627,30 @@
         </is>
       </c>
       <c r="G140">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H140">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I140">
-        <v>24.48</v>
+        <v>25.11</v>
       </c>
       <c r="J140">
-        <v>17.2</v>
+        <v>17.72</v>
       </c>
       <c r="K140">
-        <v>32.99</v>
+        <v>34.79</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -6979,25 +7679,30 @@
         </is>
       </c>
       <c r="G141">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H141">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I141">
-        <v>24.65</v>
+        <v>24.89</v>
       </c>
       <c r="J141">
-        <v>18.1</v>
+        <v>17.59</v>
       </c>
       <c r="K141">
-        <v>31.96</v>
+        <v>33.59</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7026,25 +7731,30 @@
         </is>
       </c>
       <c r="G142">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H142">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I142">
-        <v>20.99</v>
+        <v>20.91</v>
       </c>
       <c r="J142">
-        <v>19.04</v>
+        <v>17.93</v>
       </c>
       <c r="K142">
-        <v>23.42</v>
+        <v>24.54</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7073,25 +7783,30 @@
         </is>
       </c>
       <c r="G143">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H143">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I143">
-        <v>23.07</v>
+        <v>23.77</v>
       </c>
       <c r="J143">
-        <v>16</v>
+        <v>16.94</v>
       </c>
       <c r="K143">
-        <v>31.92</v>
+        <v>34.06</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7120,25 +7835,30 @@
         </is>
       </c>
       <c r="G144">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H144">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I144">
-        <v>22.55</v>
+        <v>22.63</v>
       </c>
       <c r="J144">
         <v>16.13</v>
       </c>
       <c r="K144">
-        <v>29.94</v>
+        <v>33.12</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7167,25 +7887,30 @@
         </is>
       </c>
       <c r="G145">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H145">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I145">
-        <v>20.92</v>
+        <v>21.3</v>
       </c>
       <c r="J145">
-        <v>14.37</v>
+        <v>13.94</v>
       </c>
       <c r="K145">
-        <v>28.53</v>
+        <v>31.57</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7214,25 +7939,30 @@
         </is>
       </c>
       <c r="G146">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H146">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I146">
-        <v>20.24</v>
+        <v>19.91</v>
       </c>
       <c r="J146">
-        <v>12.4</v>
+        <v>13.64</v>
       </c>
       <c r="K146">
-        <v>29.94</v>
+        <v>27.41</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7261,25 +7991,30 @@
         </is>
       </c>
       <c r="G147">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H147">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I147">
-        <v>20.9</v>
+        <v>21.4</v>
       </c>
       <c r="J147">
-        <v>14.8</v>
+        <v>14.58</v>
       </c>
       <c r="K147">
-        <v>29.04</v>
+        <v>33.03</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7308,25 +8043,30 @@
         </is>
       </c>
       <c r="G148">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H148">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I148">
-        <v>21.05</v>
+        <v>21.33</v>
       </c>
       <c r="J148">
-        <v>14.71</v>
+        <v>14.63</v>
       </c>
       <c r="K148">
-        <v>28.1</v>
+        <v>31.31</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7355,25 +8095,30 @@
         </is>
       </c>
       <c r="G149">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H149">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I149">
-        <v>20.75</v>
+        <v>21.28</v>
       </c>
       <c r="J149">
-        <v>14.41</v>
+        <v>14.15</v>
       </c>
       <c r="K149">
-        <v>28.23</v>
+        <v>32.34</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7402,25 +8147,30 @@
         </is>
       </c>
       <c r="G150">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H150">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I150">
-        <v>20.61</v>
+        <v>21.26</v>
       </c>
       <c r="J150">
-        <v>14.03</v>
+        <v>14.11</v>
       </c>
       <c r="K150">
-        <v>28.23</v>
+        <v>32.22</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7449,25 +8199,30 @@
         </is>
       </c>
       <c r="G151">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H151">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I151">
-        <v>18.56</v>
+        <v>18.39</v>
       </c>
       <c r="J151">
-        <v>13.34</v>
+        <v>13.68</v>
       </c>
       <c r="K151">
-        <v>24.32</v>
+        <v>25.69</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -7496,25 +8251,30 @@
         </is>
       </c>
       <c r="G152">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H152">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I152">
-        <v>17.14</v>
+        <v>17.48</v>
       </c>
       <c r="J152">
         <v>9.949999999999999</v>
       </c>
       <c r="K152">
-        <v>24.49</v>
+        <v>27.58</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -7543,25 +8303,30 @@
         </is>
       </c>
       <c r="G153">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H153">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I153">
-        <v>18.48</v>
+        <v>18.86</v>
       </c>
       <c r="J153">
-        <v>11.45</v>
+        <v>11.75</v>
       </c>
       <c r="K153">
-        <v>25.65</v>
+        <v>28.05</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -7590,25 +8355,30 @@
         </is>
       </c>
       <c r="G154">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H154">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I154">
-        <v>19.62</v>
+        <v>19.84</v>
       </c>
       <c r="J154">
-        <v>16</v>
+        <v>15.83</v>
       </c>
       <c r="K154">
-        <v>24.58</v>
+        <v>26.64</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -7637,25 +8407,30 @@
         </is>
       </c>
       <c r="G155">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H155">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I155">
-        <v>18.87</v>
+        <v>19.28</v>
       </c>
       <c r="J155">
-        <v>12.05</v>
+        <v>12.14</v>
       </c>
       <c r="K155">
-        <v>26.51</v>
+        <v>28.48</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -7684,25 +8459,30 @@
         </is>
       </c>
       <c r="G156">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H156">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I156">
-        <v>17</v>
+        <v>17.54</v>
       </c>
       <c r="J156">
-        <v>14.03</v>
+        <v>13.81</v>
       </c>
       <c r="K156">
-        <v>25.57</v>
+        <v>27.71</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -7731,25 +8511,30 @@
         </is>
       </c>
       <c r="G157">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H157">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I157">
-        <v>15.1</v>
+        <v>17.69</v>
       </c>
       <c r="J157">
-        <v>11.49</v>
+        <v>13.47</v>
       </c>
       <c r="K157">
-        <v>19.52</v>
+        <v>26.38</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -7778,25 +8563,30 @@
         </is>
       </c>
       <c r="G158">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H158">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I158">
-        <v>16.73</v>
+        <v>18.59</v>
       </c>
       <c r="J158">
-        <v>11.88</v>
+        <v>13.77</v>
       </c>
       <c r="K158">
-        <v>23.72</v>
+        <v>26.72</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -7825,25 +8615,30 @@
         </is>
       </c>
       <c r="G159">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H159">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I159">
-        <v>16.69</v>
+        <v>18.2</v>
       </c>
       <c r="J159">
-        <v>10.55</v>
+        <v>11.28</v>
       </c>
       <c r="K159">
-        <v>24.54</v>
+        <v>28.53</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -7872,25 +8667,30 @@
         </is>
       </c>
       <c r="G160">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H160">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I160">
-        <v>17.24</v>
+        <v>18.19</v>
       </c>
       <c r="J160">
-        <v>10.94</v>
+        <v>11.28</v>
       </c>
       <c r="K160">
-        <v>24.79</v>
+        <v>27.67</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -7919,25 +8719,30 @@
         </is>
       </c>
       <c r="G161">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H161">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I161">
-        <v>16.61</v>
+        <v>16.54</v>
       </c>
       <c r="J161">
-        <v>12.7</v>
+        <v>12.91</v>
       </c>
       <c r="K161">
-        <v>21.49</v>
+        <v>20.76</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -7966,25 +8771,30 @@
         </is>
       </c>
       <c r="G162">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H162">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I162">
-        <v>12.48</v>
+        <v>13.43</v>
       </c>
       <c r="J162">
-        <v>11.54</v>
+        <v>11.75</v>
       </c>
       <c r="K162">
-        <v>14.67</v>
+        <v>17.93</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8013,25 +8823,30 @@
         </is>
       </c>
       <c r="G163">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H163">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I163">
-        <v>12.42</v>
+        <v>13.91</v>
       </c>
       <c r="J163">
-        <v>10.12</v>
+        <v>11.49</v>
       </c>
       <c r="K163">
-        <v>15.27</v>
+        <v>20.93</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8060,25 +8875,30 @@
         </is>
       </c>
       <c r="G164">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H164">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I164">
-        <v>13.28</v>
+        <v>15.94</v>
       </c>
       <c r="J164">
-        <v>6.9</v>
+        <v>9.56</v>
       </c>
       <c r="K164">
-        <v>20.72</v>
+        <v>26.77</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8107,25 +8927,30 @@
         </is>
       </c>
       <c r="G165">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H165">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I165">
-        <v>16.51</v>
+        <v>18.28</v>
       </c>
       <c r="J165">
-        <v>9.74</v>
+        <v>10.68</v>
       </c>
       <c r="K165">
-        <v>26.12</v>
+        <v>30.46</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -8154,25 +8979,30 @@
         </is>
       </c>
       <c r="G166">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H166">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I166">
-        <v>16.64</v>
+        <v>17.37</v>
       </c>
       <c r="J166">
-        <v>11.37</v>
+        <v>11.75</v>
       </c>
       <c r="K166">
-        <v>23.29</v>
+        <v>25.95</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -8201,25 +9031,30 @@
         </is>
       </c>
       <c r="G167">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H167">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I167">
-        <v>15.25</v>
+        <v>16.33</v>
       </c>
       <c r="J167">
-        <v>8.279999999999999</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="K167">
-        <v>23.81</v>
+        <v>27.93</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -8248,25 +9083,30 @@
         </is>
       </c>
       <c r="G168">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H168">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I168">
-        <v>17.41</v>
+        <v>19.18</v>
       </c>
       <c r="J168">
-        <v>8.92</v>
+        <v>9.69</v>
       </c>
       <c r="K168">
-        <v>29.3</v>
+        <v>34.49</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -8295,25 +9135,30 @@
         </is>
       </c>
       <c r="G169">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H169">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I169">
-        <v>19.55</v>
+        <v>21.32</v>
       </c>
       <c r="J169">
-        <v>11.92</v>
+        <v>13.04</v>
       </c>
       <c r="K169">
-        <v>30.97</v>
+        <v>35.82</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -8342,25 +9187,30 @@
         </is>
       </c>
       <c r="G170">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H170">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I170">
-        <v>20.76</v>
+        <v>22.03</v>
       </c>
       <c r="J170">
-        <v>12.82</v>
+        <v>13.55</v>
       </c>
       <c r="K170">
-        <v>30.97</v>
+        <v>34.62</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -8389,25 +9239,30 @@
         </is>
       </c>
       <c r="G171">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H171">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I171">
-        <v>21.44</v>
+        <v>22.07</v>
       </c>
       <c r="J171">
-        <v>15.4</v>
+        <v>14.8</v>
       </c>
       <c r="K171">
-        <v>30.16</v>
+        <v>31.06</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -8436,25 +9291,30 @@
         </is>
       </c>
       <c r="G172">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H172">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I172">
-        <v>18.11</v>
+        <v>17.65</v>
       </c>
       <c r="J172">
-        <v>12.91</v>
+        <v>13.21</v>
       </c>
       <c r="K172">
-        <v>23.89</v>
+        <v>25.09</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -8483,25 +9343,30 @@
         </is>
       </c>
       <c r="G173">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H173">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I173">
-        <v>17.56</v>
+        <v>18.56</v>
       </c>
       <c r="J173">
-        <v>10.46</v>
+        <v>10.64</v>
       </c>
       <c r="K173">
-        <v>26.42</v>
+        <v>30.8</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -8530,25 +9395,30 @@
         </is>
       </c>
       <c r="G174">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H174">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I174">
-        <v>18.8</v>
+        <v>20.89</v>
       </c>
       <c r="J174">
-        <v>12.27</v>
+        <v>12.65</v>
       </c>
       <c r="K174">
-        <v>29.38</v>
+        <v>35.56</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -8577,25 +9447,30 @@
         </is>
       </c>
       <c r="G175">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H175">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I175">
-        <v>20.03</v>
+        <v>22.12</v>
       </c>
       <c r="J175">
-        <v>12.78</v>
+        <v>13.68</v>
       </c>
       <c r="K175">
-        <v>31.4</v>
+        <v>37.66</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -8624,25 +9499,30 @@
         </is>
       </c>
       <c r="G176">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H176">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I176">
-        <v>20.35</v>
+        <v>21.95</v>
       </c>
       <c r="J176">
-        <v>14.15</v>
+        <v>14.58</v>
       </c>
       <c r="K176">
-        <v>29</v>
+        <v>34.96</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -8671,25 +9551,30 @@
         </is>
       </c>
       <c r="G177">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H177">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I177">
-        <v>20.79</v>
+        <v>21.91</v>
       </c>
       <c r="J177">
-        <v>15.27</v>
+        <v>15.14</v>
       </c>
       <c r="K177">
-        <v>30.24</v>
+        <v>33.29</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -8718,25 +9603,30 @@
         </is>
       </c>
       <c r="G178">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H178">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I178">
-        <v>19.82</v>
+        <v>21.44</v>
       </c>
       <c r="J178">
-        <v>14.33</v>
+        <v>14.15</v>
       </c>
       <c r="K178">
-        <v>28.31</v>
+        <v>36.89</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -8765,25 +9655,30 @@
         </is>
       </c>
       <c r="G179">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H179">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I179">
-        <v>19.4</v>
+        <v>20.71</v>
       </c>
       <c r="J179">
-        <v>13.17</v>
+        <v>13.25</v>
       </c>
       <c r="K179">
-        <v>29.3</v>
+        <v>32.94</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -8812,25 +9707,30 @@
         </is>
       </c>
       <c r="G180">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H180">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I180">
-        <v>18.64</v>
+        <v>19.25</v>
       </c>
       <c r="J180">
-        <v>12.52</v>
+        <v>12.44</v>
       </c>
       <c r="K180">
-        <v>26.51</v>
+        <v>32.52</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -8859,25 +9759,30 @@
         </is>
       </c>
       <c r="G181">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H181">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I181">
-        <v>13</v>
+        <v>13.24</v>
       </c>
       <c r="J181">
-        <v>10.51</v>
+        <v>10.21</v>
       </c>
       <c r="K181">
-        <v>14.71</v>
+        <v>16.56</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -8906,25 +9811,30 @@
         </is>
       </c>
       <c r="G182">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H182">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I182">
-        <v>13.54</v>
+        <v>14.18</v>
       </c>
       <c r="J182">
-        <v>10.77</v>
+        <v>11.54</v>
       </c>
       <c r="K182">
-        <v>16.39</v>
+        <v>17.72</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -8953,25 +9863,30 @@
         </is>
       </c>
       <c r="G183">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H183">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I183">
-        <v>13.34</v>
+        <v>15.48</v>
       </c>
       <c r="J183">
-        <v>8.279999999999999</v>
+        <v>9.91</v>
       </c>
       <c r="K183">
-        <v>19.9</v>
+        <v>25.52</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -9000,25 +9915,30 @@
         </is>
       </c>
       <c r="G184">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H184">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I184">
-        <v>14.83</v>
+        <v>16.4</v>
       </c>
       <c r="J184">
-        <v>10.21</v>
+        <v>10.81</v>
       </c>
       <c r="K184">
-        <v>21.28</v>
+        <v>26.34</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -9047,25 +9967,30 @@
         </is>
       </c>
       <c r="G185">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H185">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I185">
-        <v>14.05</v>
+        <v>15.73</v>
       </c>
       <c r="J185">
-        <v>11.71</v>
+        <v>12.74</v>
       </c>
       <c r="K185">
-        <v>17.5</v>
+        <v>20.33</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -9094,25 +10019,30 @@
         </is>
       </c>
       <c r="G186">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H186">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I186">
-        <v>12.63</v>
+        <v>12.91</v>
       </c>
       <c r="J186">
-        <v>8.66</v>
+        <v>8.75</v>
       </c>
       <c r="K186">
-        <v>17.24</v>
+        <v>18.96</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -9141,25 +10071,30 @@
         </is>
       </c>
       <c r="G187">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H187">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I187">
-        <v>13.4</v>
+        <v>14.09</v>
       </c>
       <c r="J187">
-        <v>9.69</v>
+        <v>11.02</v>
       </c>
       <c r="K187">
-        <v>18.74</v>
+        <v>19.65</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -9188,25 +10123,30 @@
         </is>
       </c>
       <c r="G188">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H188">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I188">
-        <v>14.49</v>
+        <v>16.01</v>
       </c>
       <c r="J188">
-        <v>9.390000000000001</v>
+        <v>11.45</v>
       </c>
       <c r="K188">
-        <v>21.23</v>
+        <v>27.97</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -9235,25 +10175,30 @@
         </is>
       </c>
       <c r="G189">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H189">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I189">
-        <v>14.61</v>
+        <v>16.28</v>
       </c>
       <c r="J189">
-        <v>9.050000000000001</v>
+        <v>10.94</v>
       </c>
       <c r="K189">
-        <v>22.22</v>
+        <v>26.12</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -9282,25 +10227,30 @@
         </is>
       </c>
       <c r="G190">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H190">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I190">
-        <v>14.01</v>
+        <v>15.3</v>
       </c>
       <c r="J190">
-        <v>9.01</v>
+        <v>9.74</v>
       </c>
       <c r="K190">
-        <v>21.1</v>
+        <v>25.35</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>21433138</t>
+          <t>21679162</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -9329,19 +10279,24 @@
         </is>
       </c>
       <c r="G191">
-        <v>43.29146447</v>
+        <v>43.34527702</v>
       </c>
       <c r="H191">
-        <v>-122.54551127</v>
+        <v>-122.73678676</v>
       </c>
       <c r="I191">
-        <v>9.01</v>
+        <v>10.65</v>
       </c>
       <c r="J191">
-        <v>6.35</v>
+        <v>7.08</v>
       </c>
       <c r="K191">
-        <v>17.46</v>
+        <v>27.24</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>NorthUmpAtSteamboat</t>
+        </is>
       </c>
     </row>
   </sheetData>
